--- a/src/lib/excels/CI_Comps.xlsx
+++ b/src/lib/excels/CI_Comps.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F855C4D-0E57-4374-A1C4-F1610B780E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{0F855C4D-0E57-4374-A1C4-F1610B780E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45FDD9A5-0F5D-1E43-8A00-1571EFB0A6FF}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="27288" windowHeight="17664" xr2:uid="{AB0D5E22-6F5B-EC43-9578-14FEE2B3982A}"/>
+    <workbookView xWindow="38400" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{AB0D5E22-6F5B-EC43-9578-14FEE2B3982A}"/>
   </bookViews>
   <sheets>
     <sheet name="CIs" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1511" uniqueCount="254">
   <si>
     <t>Packaged</t>
   </si>
@@ -790,6 +790,9 @@
   </si>
   <si>
     <t>Final Price</t>
+  </si>
+  <si>
+    <t>Not controllable</t>
   </si>
 </sst>
 </file>
@@ -921,7 +924,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hiperligação" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="40">
@@ -1113,7 +1116,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1413,62 +1416,62 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" topLeftCell="Z1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AH3" sqref="AH3"/>
+      <selection pane="topRight" activeCell="AF16" sqref="AF16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.5" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="7.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.5" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.296875" customWidth="1"/>
-    <col min="10" max="10" width="24.19921875" customWidth="1"/>
+    <col min="9" max="9" width="28.33203125" customWidth="1"/>
+    <col min="10" max="10" width="24.1640625" customWidth="1"/>
     <col min="11" max="11" width="8" customWidth="1"/>
     <col min="12" max="12" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="36.19921875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="43.69921875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.69921875" customWidth="1"/>
-    <col min="16" max="16" width="23.19921875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.19921875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="36.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="43.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.6640625" customWidth="1"/>
+    <col min="16" max="16" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.83203125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="21" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="25" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="27.69921875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="32.69921875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="34.296875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="34.33203125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="29.19921875" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="19.69921875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="20.296875" customWidth="1"/>
+    <col min="25" max="25" width="29.1640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.33203125" customWidth="1"/>
     <col min="30" max="30" width="24.5" customWidth="1"/>
-    <col min="31" max="31" width="10.796875" customWidth="1"/>
-    <col min="32" max="32" width="13.296875" customWidth="1"/>
-    <col min="33" max="33" width="11.796875" customWidth="1"/>
+    <col min="31" max="31" width="10.83203125" customWidth="1"/>
+    <col min="32" max="32" width="13.33203125" customWidth="1"/>
+    <col min="33" max="33" width="11.83203125" customWidth="1"/>
     <col min="34" max="34" width="12" customWidth="1"/>
     <col min="37" max="37" width="22.5" customWidth="1"/>
-    <col min="38" max="38" width="27.69921875" customWidth="1"/>
-    <col min="40" max="40" width="19.19921875" customWidth="1"/>
-    <col min="41" max="41" width="33.296875" customWidth="1"/>
-    <col min="42" max="42" width="24.796875" customWidth="1"/>
-    <col min="43" max="43" width="19.19921875" customWidth="1"/>
-    <col min="44" max="44" width="11.69921875" customWidth="1"/>
+    <col min="38" max="38" width="27.6640625" customWidth="1"/>
+    <col min="40" max="40" width="19.1640625" customWidth="1"/>
+    <col min="41" max="41" width="33.33203125" customWidth="1"/>
+    <col min="42" max="42" width="24.83203125" customWidth="1"/>
+    <col min="43" max="43" width="19.1640625" customWidth="1"/>
+    <col min="44" max="44" width="11.6640625" customWidth="1"/>
     <col min="45" max="45" width="31" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="25.19921875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="25.1640625" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="20" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="20.19921875" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="26.796875" customWidth="1"/>
-    <col min="50" max="50" width="24.796875" customWidth="1"/>
-    <col min="51" max="51" width="20.19921875" customWidth="1"/>
-    <col min="52" max="52" width="28.796875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="26.83203125" customWidth="1"/>
+    <col min="50" max="50" width="24.83203125" customWidth="1"/>
+    <col min="51" max="51" width="20.1640625" customWidth="1"/>
+    <col min="52" max="52" width="28.83203125" bestFit="1" customWidth="1"/>
     <col min="53" max="53" width="27" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="25" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="20.19921875" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="20.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -1587,7 +1590,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1688,7 +1691,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -1805,7 +1808,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -1922,7 +1925,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -2039,7 +2042,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -2156,7 +2159,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
@@ -2273,7 +2276,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
@@ -2392,7 +2395,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
@@ -2512,7 +2515,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>27</v>
       </c>
@@ -2631,7 +2634,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>27</v>
       </c>
@@ -2750,7 +2753,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>243</v>
       </c>
@@ -2868,7 +2871,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>243</v>
       </c>
@@ -2989,7 +2992,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>243</v>
       </c>
@@ -3110,7 +3113,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>34</v>
       </c>
@@ -3230,7 +3233,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>34</v>
       </c>
@@ -3348,7 +3351,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>34</v>
       </c>
@@ -3466,7 +3469,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>38</v>
       </c>
@@ -3583,7 +3586,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>38</v>
       </c>
@@ -3700,7 +3703,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>38</v>
       </c>
@@ -3817,7 +3820,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
@@ -3934,7 +3937,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>38</v>
       </c>
@@ -4051,7 +4054,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>46</v>
       </c>
@@ -4146,9 +4149,11 @@
         <v>0</v>
       </c>
       <c r="AF23" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="AG23" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AG23" s="2"/>
       <c r="AH23" t="s">
         <v>4</v>
       </c>
@@ -4168,7 +4173,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>46</v>
       </c>
@@ -4265,9 +4270,11 @@
         <v>0</v>
       </c>
       <c r="AF24" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="AG24" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AG24" s="2"/>
       <c r="AH24" t="s">
         <v>4</v>
       </c>
@@ -4287,7 +4294,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>46</v>
       </c>
@@ -4382,9 +4389,11 @@
         <v>8000</v>
       </c>
       <c r="AF25" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="AG25" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AG25" s="2"/>
       <c r="AH25" t="s">
         <v>4</v>
       </c>
@@ -4404,7 +4413,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>52</v>
       </c>
@@ -4524,7 +4533,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>56</v>
       </c>
@@ -4643,7 +4652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>56</v>
       </c>
@@ -4762,7 +4771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>56</v>
       </c>
@@ -4881,7 +4890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>56</v>
       </c>
@@ -5000,7 +5009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>56</v>
       </c>
@@ -5119,7 +5128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>56</v>
       </c>
@@ -5238,7 +5247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>65</v>
       </c>
@@ -5356,7 +5365,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>65</v>
       </c>
@@ -5474,7 +5483,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>65</v>
       </c>
@@ -5592,7 +5601,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>65</v>
       </c>
@@ -5712,7 +5721,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>69</v>
       </c>
@@ -5831,7 +5840,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>69</v>
       </c>
@@ -5950,7 +5959,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>69</v>
       </c>
@@ -6069,7 +6078,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>69</v>
       </c>
@@ -6190,7 +6199,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>73</v>
       </c>
@@ -6309,7 +6318,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>77</v>
       </c>
@@ -6404,7 +6413,7 @@
         <v>0</v>
       </c>
       <c r="AF42" s="2" t="s">
-        <v>49</v>
+        <v>253</v>
       </c>
       <c r="AG42" s="2" t="s">
         <v>49</v>
@@ -6428,7 +6437,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>80</v>
       </c>
@@ -6547,7 +6556,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>80</v>
       </c>
@@ -6668,7 +6677,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>80</v>
       </c>
@@ -6789,7 +6798,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>80</v>
       </c>
@@ -6908,7 +6917,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>80</v>
       </c>
@@ -7027,7 +7036,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>84</v>
       </c>
@@ -7146,7 +7155,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>87</v>
       </c>
@@ -7265,7 +7274,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>90</v>
       </c>
@@ -7382,7 +7391,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>90</v>
       </c>
@@ -7501,7 +7510,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>93</v>
       </c>
@@ -7618,7 +7627,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>93</v>
       </c>
@@ -7736,7 +7745,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>97</v>
       </c>
@@ -7853,7 +7862,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>100</v>
       </c>
@@ -7972,7 +7981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>100</v>
       </c>
@@ -8091,7 +8100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>103</v>
       </c>
@@ -8206,7 +8215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>106</v>
       </c>
@@ -8321,7 +8330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>108</v>
       </c>
@@ -8438,7 +8447,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>108</v>
       </c>
@@ -8555,7 +8564,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>108</v>
       </c>
@@ -8672,7 +8681,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>108</v>
       </c>
@@ -8791,7 +8800,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>114</v>
       </c>

--- a/src/lib/excels/CI_Comps.xlsx
+++ b/src/lib/excels/CI_Comps.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{0F855C4D-0E57-4374-A1C4-F1610B780E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45FDD9A5-0F5D-1E43-8A00-1571EFB0A6FF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3960B16-8E25-1A4A-BB2A-584F7A9CFA40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{AB0D5E22-6F5B-EC43-9578-14FEE2B3982A}"/>
   </bookViews>
@@ -423,9 +423,6 @@
     <t>MaxUsers</t>
   </si>
   <si>
-    <t>PriceExtraUser</t>
-  </si>
-  <si>
     <t xml:space="preserve">CachingPipelineAndDependencies </t>
   </si>
   <si>
@@ -793,6 +790,9 @@
   </si>
   <si>
     <t>Not controllable</t>
+  </si>
+  <si>
+    <t>PriceExtraUser$</t>
   </si>
 </sst>
 </file>
@@ -1100,7 +1100,7 @@
     <tableColumn id="34" xr3:uid="{B89B993E-E109-0C41-96BD-143310A5EFC9}" name="PricePerExtraCredit" dataDxfId="12"/>
     <tableColumn id="17" xr3:uid="{61F72404-ABE2-FD43-A410-51C89C6B772D}" name="IncludedUsers" dataDxfId="11"/>
     <tableColumn id="19" xr3:uid="{CF4B76DC-5736-D34A-8FC4-122BBE358245}" name="MaxUsers" dataDxfId="10"/>
-    <tableColumn id="20" xr3:uid="{39310329-028F-A347-AF5A-990BDB186F63}" name="PriceExtraUser" dataDxfId="9"/>
+    <tableColumn id="20" xr3:uid="{39310329-028F-A347-AF5A-990BDB186F63}" name="PriceExtraUser$" dataDxfId="9"/>
     <tableColumn id="36" xr3:uid="{E6BC14CB-2B8D-524E-9B1F-ED6637B2D869}" name="IncludedCreditsPerExtraUser" dataDxfId="8"/>
     <tableColumn id="22" xr3:uid="{0DED0BA4-9DF4-B04C-9035-612BE7063AC5}" name="CachingPipelineAndDependencies " dataDxfId="7"/>
     <tableColumn id="42" xr3:uid="{3EE916D4-D265-2749-A3C4-5B8C674AF706}" name="desc_CachingPipelineAndDependencies" dataDxfId="6"/>
@@ -1415,8 +1415,8 @@
   <dimension ref="A1:AM63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="Z1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AF16" sqref="AF16"/>
+      <pane xSplit="1" topLeftCell="W1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AD2" sqref="AD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1479,13 +1479,13 @@
         <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>121</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F1" t="s">
         <v>0</v>
@@ -1500,55 +1500,55 @@
         <v>122</v>
       </c>
       <c r="J1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K1" t="s">
         <v>123</v>
       </c>
       <c r="L1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M1" t="s">
+        <v>143</v>
+      </c>
+      <c r="N1" t="s">
         <v>144</v>
       </c>
-      <c r="N1" t="s">
-        <v>145</v>
-      </c>
       <c r="O1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P1" t="s">
         <v>124</v>
       </c>
       <c r="Q1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="R1" t="s">
         <v>125</v>
       </c>
       <c r="S1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="T1" t="s">
         <v>126</v>
       </c>
       <c r="U1" t="s">
+        <v>234</v>
+      </c>
+      <c r="V1" t="s">
         <v>235</v>
       </c>
-      <c r="V1" t="s">
-        <v>236</v>
-      </c>
       <c r="W1" t="s">
+        <v>240</v>
+      </c>
+      <c r="X1" t="s">
+        <v>239</v>
+      </c>
+      <c r="Y1" t="s">
         <v>241</v>
       </c>
-      <c r="X1" t="s">
-        <v>240</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>242</v>
-      </c>
       <c r="Z1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AA1" t="s">
         <v>127</v>
@@ -1560,34 +1560,34 @@
         <v>129</v>
       </c>
       <c r="AD1" t="s">
+        <v>253</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AF1" t="s">
         <v>130</v>
       </c>
-      <c r="AE1" t="s">
-        <v>137</v>
-      </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
+        <v>217</v>
+      </c>
+      <c r="AH1" t="s">
         <v>131</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AI1" t="s">
         <v>218</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AJ1" t="s">
         <v>132</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AK1" t="s">
         <v>219</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AL1" t="s">
         <v>133</v>
       </c>
-      <c r="AK1" t="s">
-        <v>220</v>
-      </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>134</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.2">
@@ -1601,10 +1601,10 @@
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F2" t="s">
         <v>0</v>
@@ -1616,79 +1616,79 @@
         <v>2</v>
       </c>
       <c r="I2" t="s">
+        <v>147</v>
+      </c>
+      <c r="K2" t="s">
         <v>148</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>149</v>
       </c>
-      <c r="M2" t="s">
-        <v>150</v>
-      </c>
       <c r="N2" t="s">
+        <v>246</v>
+      </c>
+      <c r="O2" t="s">
+        <v>232</v>
+      </c>
+      <c r="P2" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>230</v>
+      </c>
+      <c r="R2" t="s">
+        <v>248</v>
+      </c>
+      <c r="S2" t="s">
         <v>247</v>
       </c>
-      <c r="O2" t="s">
+      <c r="T2" t="s">
+        <v>249</v>
+      </c>
+      <c r="U2" t="s">
         <v>233</v>
       </c>
-      <c r="P2" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>231</v>
-      </c>
-      <c r="R2" t="s">
-        <v>249</v>
-      </c>
-      <c r="S2" t="s">
-        <v>248</v>
-      </c>
-      <c r="T2" t="s">
-        <v>250</v>
-      </c>
-      <c r="U2" t="s">
-        <v>234</v>
-      </c>
       <c r="V2" t="s">
+        <v>236</v>
+      </c>
+      <c r="W2" t="s">
         <v>237</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>238</v>
       </c>
-      <c r="X2" t="s">
-        <v>239</v>
-      </c>
       <c r="Y2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AA2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AB2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AC2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AD2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AE2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AF2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AH2" t="s">
         <v>26</v>
       </c>
       <c r="AJ2" t="s">
+        <v>226</v>
+      </c>
+      <c r="AL2" t="s">
         <v>227</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AM2" t="s">
         <v>228</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.2">
@@ -1724,7 +1724,7 @@
         <v>1800</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>20</v>
@@ -1787,7 +1787,7 @@
         <v>4</v>
       </c>
       <c r="AG3" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AH3" t="s">
         <v>4</v>
@@ -1841,7 +1841,7 @@
         <v>52</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>119</v>
@@ -1904,7 +1904,7 @@
         <v>4</v>
       </c>
       <c r="AG4" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AH4" t="s">
         <v>4</v>
@@ -1958,7 +1958,7 @@
         <v>52</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>119</v>
@@ -2021,7 +2021,7 @@
         <v>4</v>
       </c>
       <c r="AG5" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AH5" t="s">
         <v>4</v>
@@ -2075,7 +2075,7 @@
         <v>52</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>119</v>
@@ -2138,7 +2138,7 @@
         <v>4</v>
       </c>
       <c r="AG6" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AH6" t="s">
         <v>4</v>
@@ -2192,7 +2192,7 @@
         <v>52</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>119</v>
@@ -2255,7 +2255,7 @@
         <v>4</v>
       </c>
       <c r="AG7" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AH7" t="s">
         <v>4</v>
@@ -2302,16 +2302,16 @@
         <v>4</v>
       </c>
       <c r="I8" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="J8" s="10" t="s">
         <v>154</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>155</v>
       </c>
       <c r="K8" s="2">
         <v>168</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M8" s="2" t="s">
         <v>119</v>
@@ -2353,7 +2353,7 @@
         <v>50</v>
       </c>
       <c r="Z8" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA8" s="2">
         <v>5.9999999999999995E-4</v>
@@ -2374,7 +2374,7 @@
         <v>4</v>
       </c>
       <c r="AG8" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AH8" t="s">
         <v>4</v>
@@ -2421,16 +2421,16 @@
         <v>4</v>
       </c>
       <c r="I9" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="J9" s="10" t="s">
         <v>154</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>155</v>
       </c>
       <c r="K9" s="2">
         <v>168</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M9" s="2" t="s">
         <v>119</v>
@@ -2472,7 +2472,7 @@
         <v>50</v>
       </c>
       <c r="Z9" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA9" s="2">
         <v>5.9999999999999995E-4</v>
@@ -2494,7 +2494,7 @@
         <v>4</v>
       </c>
       <c r="AG9" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AH9" t="s">
         <v>4</v>
@@ -2541,16 +2541,16 @@
         <v>4</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K10" s="2">
         <v>1479</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M10" s="4" t="s">
         <v>119</v>
@@ -2613,7 +2613,7 @@
         <v>4</v>
       </c>
       <c r="AG10" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AH10" t="s">
         <v>4</v>
@@ -2660,16 +2660,16 @@
         <v>4</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K11" s="2">
         <v>1479</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M11" s="2" t="s">
         <v>119</v>
@@ -2732,7 +2732,7 @@
         <v>4</v>
       </c>
       <c r="AG11" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AH11" t="s">
         <v>4</v>
@@ -2755,7 +2755,7 @@
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>13</v>
@@ -2779,14 +2779,14 @@
         <v>4</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2">
         <v>16562</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M12" s="2" t="s">
         <v>119</v>
@@ -2829,7 +2829,7 @@
         <v>0.08</v>
       </c>
       <c r="Z12" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AA12" s="2">
         <v>1</v>
@@ -2850,7 +2850,7 @@
         <v>4</v>
       </c>
       <c r="AG12" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AH12" t="s">
         <v>4</v>
@@ -2859,7 +2859,7 @@
         <v>33</v>
       </c>
       <c r="AJ12" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AK12" s="2" t="s">
         <v>32</v>
@@ -2873,7 +2873,7 @@
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>31</v>
@@ -2899,14 +2899,14 @@
         <v>4</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2">
         <v>16562</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>119</v>
@@ -2949,7 +2949,7 @@
         <v>0.08</v>
       </c>
       <c r="Z13" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AA13" s="2">
         <v>1</v>
@@ -2971,7 +2971,7 @@
         <v>4</v>
       </c>
       <c r="AG13" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AH13" t="s">
         <v>4</v>
@@ -2980,7 +2980,7 @@
         <v>33</v>
       </c>
       <c r="AJ13" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AK13" s="2" t="s">
         <v>32</v>
@@ -2994,7 +2994,7 @@
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>14</v>
@@ -3020,14 +3020,14 @@
         <v>4</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2">
         <v>16562</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M14" s="2" t="s">
         <v>119</v>
@@ -3070,7 +3070,7 @@
         <v>0.08</v>
       </c>
       <c r="Z14" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AA14" s="2">
         <v>1</v>
@@ -3092,7 +3092,7 @@
         <v>4</v>
       </c>
       <c r="AG14" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AH14" t="s">
         <v>4</v>
@@ -3101,7 +3101,7 @@
         <v>33</v>
       </c>
       <c r="AJ14" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AK14" s="2" t="s">
         <v>32</v>
@@ -3139,16 +3139,16 @@
         <v>4</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K15" s="2">
         <v>46</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M15" s="2" t="s">
         <v>119</v>
@@ -3212,7 +3212,7 @@
         <v>4</v>
       </c>
       <c r="AG15" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AH15" t="s">
         <v>4</v>
@@ -3259,14 +3259,14 @@
         <v>4</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2">
         <v>46</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M16" s="2" t="s">
         <v>119</v>
@@ -3330,7 +3330,7 @@
         <v>4</v>
       </c>
       <c r="AG16" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AH16" t="s">
         <v>4</v>
@@ -3377,14 +3377,14 @@
         <v>4</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J17" s="2"/>
       <c r="K17" s="2">
         <v>46</v>
       </c>
       <c r="L17" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M17" s="2" t="s">
         <v>119</v>
@@ -3448,7 +3448,7 @@
         <v>4</v>
       </c>
       <c r="AG17" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AH17" t="s">
         <v>4</v>
@@ -3495,16 +3495,16 @@
         <v>4</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K18" s="2">
         <v>29</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M18" s="2" t="s">
         <v>43</v>
@@ -3567,7 +3567,7 @@
         <v>4</v>
       </c>
       <c r="AG18" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AH18" s="2" t="s">
         <v>3</v>
@@ -3612,16 +3612,16 @@
         <v>4</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K19" s="2">
         <v>29</v>
       </c>
       <c r="L19" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M19" s="2" t="s">
         <v>43</v>
@@ -3684,7 +3684,7 @@
         <v>4</v>
       </c>
       <c r="AG19" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AH19" s="2" t="s">
         <v>3</v>
@@ -3729,16 +3729,16 @@
         <v>4</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K20" s="2">
         <v>29</v>
       </c>
       <c r="L20" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M20" s="2" t="s">
         <v>43</v>
@@ -3801,7 +3801,7 @@
         <v>4</v>
       </c>
       <c r="AG20" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AH20" s="2" t="s">
         <v>3</v>
@@ -3846,16 +3846,16 @@
         <v>4</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K21" s="2">
         <v>29</v>
       </c>
       <c r="L21" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M21" s="2" t="s">
         <v>43</v>
@@ -3918,7 +3918,7 @@
         <v>4</v>
       </c>
       <c r="AG21" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AH21" s="2" t="s">
         <v>3</v>
@@ -3963,16 +3963,16 @@
         <v>4</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K22" s="2">
         <v>29</v>
       </c>
       <c r="L22" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M22" s="2" t="s">
         <v>44</v>
@@ -4035,7 +4035,7 @@
         <v>4</v>
       </c>
       <c r="AG22" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AH22" s="2" t="s">
         <v>3</v>
@@ -4083,19 +4083,19 @@
         <v>107</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K23" s="2">
         <v>169</v>
       </c>
       <c r="L23" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M23" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O23" s="2">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="AF23" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AG23" s="2" t="s">
         <v>49</v>
@@ -4204,19 +4204,19 @@
         <v>107</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K24" s="2">
         <v>169</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M24" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O24" s="2">
         <v>0</v>
@@ -4270,7 +4270,7 @@
         <v>0</v>
       </c>
       <c r="AF24" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AG24" s="2" t="s">
         <v>49</v>
@@ -4323,19 +4323,19 @@
         <v>107</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K25" s="2">
         <v>169</v>
       </c>
       <c r="L25" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O25" s="2" t="s">
         <v>5</v>
@@ -4371,7 +4371,7 @@
         <v>40</v>
       </c>
       <c r="Z25" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AA25" s="2">
         <v>8.0000000000000004E-4</v>
@@ -4389,7 +4389,7 @@
         <v>8000</v>
       </c>
       <c r="AF25" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AG25" s="2" t="s">
         <v>49</v>
@@ -4439,19 +4439,19 @@
         <v>3</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K26" s="2">
         <v>2</v>
       </c>
       <c r="L26" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N26" s="2" t="s">
         <v>74</v>
@@ -4491,7 +4491,7 @@
         <v>20</v>
       </c>
       <c r="Z26" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AA26" s="2">
         <v>1</v>
@@ -4512,7 +4512,7 @@
         <v>4</v>
       </c>
       <c r="AG26" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AH26" t="s">
         <v>4</v>
@@ -4562,13 +4562,13 @@
         <v>107</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K27" s="2">
         <v>124</v>
       </c>
       <c r="L27" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M27" s="2" t="s">
         <v>44</v>
@@ -4631,7 +4631,7 @@
         <v>4</v>
       </c>
       <c r="AG27" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AH27" t="s">
         <v>4</v>
@@ -4640,7 +4640,7 @@
         <v>63</v>
       </c>
       <c r="AJ27" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AK27" s="2" t="s">
         <v>64</v>
@@ -4681,13 +4681,13 @@
         <v>107</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K28" s="2">
         <v>124</v>
       </c>
       <c r="L28" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M28" s="2" t="s">
         <v>44</v>
@@ -4750,7 +4750,7 @@
         <v>4</v>
       </c>
       <c r="AG28" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AH28" t="s">
         <v>4</v>
@@ -4759,7 +4759,7 @@
         <v>63</v>
       </c>
       <c r="AJ28" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AK28" s="2" t="s">
         <v>64</v>
@@ -4800,13 +4800,13 @@
         <v>107</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K29" s="2">
         <v>124</v>
       </c>
       <c r="L29" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M29" s="2" t="s">
         <v>44</v>
@@ -4869,7 +4869,7 @@
         <v>4</v>
       </c>
       <c r="AG29" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AH29" t="s">
         <v>4</v>
@@ -4878,7 +4878,7 @@
         <v>63</v>
       </c>
       <c r="AJ29" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AK29" s="2" t="s">
         <v>64</v>
@@ -4919,13 +4919,13 @@
         <v>107</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K30" s="2">
         <v>124</v>
       </c>
       <c r="L30" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M30" s="2" t="s">
         <v>20</v>
@@ -4988,7 +4988,7 @@
         <v>4</v>
       </c>
       <c r="AG30" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AH30" t="s">
         <v>4</v>
@@ -4997,7 +4997,7 @@
         <v>63</v>
       </c>
       <c r="AJ30" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AK30" s="2" t="s">
         <v>64</v>
@@ -5038,13 +5038,13 @@
         <v>107</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K31" s="2">
         <v>124</v>
       </c>
       <c r="L31" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M31" s="2" t="s">
         <v>20</v>
@@ -5107,7 +5107,7 @@
         <v>4</v>
       </c>
       <c r="AG31" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AH31" t="s">
         <v>4</v>
@@ -5116,7 +5116,7 @@
         <v>63</v>
       </c>
       <c r="AJ31" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AK31" s="2" t="s">
         <v>64</v>
@@ -5157,13 +5157,13 @@
         <v>107</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K32" s="2">
         <v>124</v>
       </c>
       <c r="L32" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M32" s="2" t="s">
         <v>20</v>
@@ -5226,7 +5226,7 @@
         <v>4</v>
       </c>
       <c r="AG32" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AH32" t="s">
         <v>4</v>
@@ -5235,7 +5235,7 @@
         <v>63</v>
       </c>
       <c r="AJ32" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AK32" s="2" t="s">
         <v>64</v>
@@ -5280,7 +5280,7 @@
         <v>298</v>
       </c>
       <c r="L33" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M33" s="2" t="s">
         <v>74</v>
@@ -5344,7 +5344,7 @@
         <v>4</v>
       </c>
       <c r="AG33" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AH33" t="s">
         <v>4</v>
@@ -5353,7 +5353,7 @@
         <v>68</v>
       </c>
       <c r="AJ33" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AK33" s="2" t="s">
         <v>64</v>
@@ -5398,7 +5398,7 @@
         <v>298</v>
       </c>
       <c r="L34" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M34" s="2" t="s">
         <v>74</v>
@@ -5462,7 +5462,7 @@
         <v>4</v>
       </c>
       <c r="AG34" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AH34" t="s">
         <v>4</v>
@@ -5471,7 +5471,7 @@
         <v>68</v>
       </c>
       <c r="AJ34" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AK34" s="2" t="s">
         <v>64</v>
@@ -5516,7 +5516,7 @@
         <v>298</v>
       </c>
       <c r="L35" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M35" s="2" t="s">
         <v>74</v>
@@ -5580,7 +5580,7 @@
         <v>4</v>
       </c>
       <c r="AG35" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AH35" t="s">
         <v>4</v>
@@ -5589,7 +5589,7 @@
         <v>68</v>
       </c>
       <c r="AJ35" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AK35" s="2" t="s">
         <v>64</v>
@@ -5636,7 +5636,7 @@
         <v>298</v>
       </c>
       <c r="L36" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M36" s="2" t="s">
         <v>20</v>
@@ -5700,7 +5700,7 @@
         <v>4</v>
       </c>
       <c r="AG36" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AH36" t="s">
         <v>4</v>
@@ -5709,7 +5709,7 @@
         <v>68</v>
       </c>
       <c r="AJ36" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AK36" s="2" t="s">
         <v>64</v>
@@ -5750,13 +5750,13 @@
         <v>107</v>
       </c>
       <c r="J37" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K37" s="2">
         <v>165</v>
       </c>
       <c r="L37" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M37" s="2" t="s">
         <v>20</v>
@@ -5819,7 +5819,7 @@
         <v>4</v>
       </c>
       <c r="AG37" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AH37" t="s">
         <v>4</v>
@@ -5869,13 +5869,13 @@
         <v>107</v>
       </c>
       <c r="J38" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K38" s="2">
         <v>165</v>
       </c>
       <c r="L38" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M38" s="2" t="s">
         <v>20</v>
@@ -5938,7 +5938,7 @@
         <v>4</v>
       </c>
       <c r="AG38" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AH38" t="s">
         <v>4</v>
@@ -5988,13 +5988,13 @@
         <v>107</v>
       </c>
       <c r="J39" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K39" s="2">
         <v>165</v>
       </c>
       <c r="L39" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M39" s="2" t="s">
         <v>20</v>
@@ -6057,7 +6057,7 @@
         <v>4</v>
       </c>
       <c r="AG39" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AH39" t="s">
         <v>4</v>
@@ -6109,13 +6109,13 @@
         <v>107</v>
       </c>
       <c r="J40" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K40" s="2">
         <v>165</v>
       </c>
       <c r="L40" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M40" s="2" t="s">
         <v>20</v>
@@ -6178,7 +6178,7 @@
         <v>4</v>
       </c>
       <c r="AG40" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AH40" t="s">
         <v>4</v>
@@ -6228,13 +6228,13 @@
         <v>107</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K41" s="2">
         <v>90</v>
       </c>
       <c r="L41" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M41" s="2" t="s">
         <v>20</v>
@@ -6297,7 +6297,7 @@
         <v>4</v>
       </c>
       <c r="AG41" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AH41" t="s">
         <v>4</v>
@@ -6347,19 +6347,19 @@
         <v>107</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K42" s="2">
         <v>10</v>
       </c>
       <c r="L42" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M42" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O42" s="2">
         <v>0</v>
@@ -6413,7 +6413,7 @@
         <v>0</v>
       </c>
       <c r="AF42" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AG42" s="2" t="s">
         <v>49</v>
@@ -6466,16 +6466,16 @@
         <v>107</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K43" s="2">
         <v>0</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N43" s="2" t="s">
         <v>119</v>
@@ -6535,7 +6535,7 @@
         <v>4</v>
       </c>
       <c r="AG43" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AH43" t="s">
         <v>4</v>
@@ -6587,16 +6587,16 @@
         <v>107</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K44" s="2">
         <v>0</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N44" s="2" t="s">
         <v>119</v>
@@ -6656,7 +6656,7 @@
         <v>4</v>
       </c>
       <c r="AG44" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AH44" t="s">
         <v>4</v>
@@ -6708,16 +6708,16 @@
         <v>107</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K45" s="2">
         <v>0</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N45" s="2" t="s">
         <v>119</v>
@@ -6777,7 +6777,7 @@
         <v>4</v>
       </c>
       <c r="AG45" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AH45" t="s">
         <v>4</v>
@@ -6827,13 +6827,13 @@
         <v>107</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K46" s="2">
         <v>0</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M46" s="2" t="s">
         <v>20</v>
@@ -6896,7 +6896,7 @@
         <v>4</v>
       </c>
       <c r="AG46" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AH46" t="s">
         <v>4</v>
@@ -6946,13 +6946,13 @@
         <v>107</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K47" s="2">
         <v>0</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M47" s="2" t="s">
         <v>20</v>
@@ -7015,7 +7015,7 @@
         <v>4</v>
       </c>
       <c r="AG47" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AH47" t="s">
         <v>4</v>
@@ -7065,13 +7065,13 @@
         <v>107</v>
       </c>
       <c r="J48" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K48" s="2">
         <v>5</v>
       </c>
       <c r="L48" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M48" s="2" t="s">
         <v>20</v>
@@ -7134,7 +7134,7 @@
         <v>4</v>
       </c>
       <c r="AG48" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AH48" t="s">
         <v>4</v>
@@ -7184,13 +7184,13 @@
         <v>107</v>
       </c>
       <c r="J49" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K49" s="2">
         <v>149</v>
       </c>
       <c r="L49" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M49" s="2" t="s">
         <v>20</v>
@@ -7253,7 +7253,7 @@
         <v>4</v>
       </c>
       <c r="AG49" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AH49" s="2" t="s">
         <v>3</v>
@@ -7303,13 +7303,13 @@
         <v>107</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K50" s="2">
         <v>44</v>
       </c>
       <c r="L50" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M50" s="2" t="s">
         <v>20</v>
@@ -7422,13 +7422,13 @@
         <v>107</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K51" s="2">
         <v>44</v>
       </c>
       <c r="L51" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M51" s="2" t="s">
         <v>20</v>
@@ -7536,10 +7536,10 @@
         <v>3</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K52" s="2">
         <v>0</v>
@@ -7552,7 +7552,7 @@
         <v>119</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P52" s="2" t="s">
         <v>20</v>
@@ -7606,7 +7606,7 @@
         <v>4</v>
       </c>
       <c r="AG52" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AH52" t="s">
         <v>4</v>
@@ -7653,10 +7653,10 @@
         <v>3</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K53" s="2">
         <v>0</v>
@@ -7669,7 +7669,7 @@
         <v>119</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P53" s="2" t="s">
         <v>20</v>
@@ -7724,7 +7724,7 @@
         <v>4</v>
       </c>
       <c r="AG53" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AH53" t="s">
         <v>4</v>
@@ -7774,7 +7774,7 @@
         <v>107</v>
       </c>
       <c r="J54" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K54" s="2">
         <v>0</v>
@@ -7841,7 +7841,7 @@
         <v>4</v>
       </c>
       <c r="AG54" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AH54" t="s">
         <v>4</v>
@@ -7888,16 +7888,16 @@
         <v>4</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J55" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K55" s="2">
         <v>7</v>
       </c>
       <c r="L55" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M55" s="2" t="s">
         <v>102</v>
@@ -7960,7 +7960,7 @@
         <v>4</v>
       </c>
       <c r="AG55" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AH55" s="2" t="s">
         <v>3</v>
@@ -8007,16 +8007,16 @@
         <v>4</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J56" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K56" s="2">
         <v>7</v>
       </c>
       <c r="L56" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M56" s="2" t="s">
         <v>102</v>
@@ -8126,7 +8126,7 @@
         <v>4</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J57" s="2"/>
       <c r="K57" s="2">
@@ -8194,7 +8194,7 @@
         <v>4</v>
       </c>
       <c r="AG57" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AH57" s="2" t="s">
         <v>3</v>
@@ -8309,7 +8309,7 @@
         <v>4</v>
       </c>
       <c r="AG58" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AH58" s="2" t="s">
         <v>3</v>
@@ -8363,7 +8363,7 @@
         <v>157</v>
       </c>
       <c r="L59" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M59" s="2" t="s">
         <v>111</v>
@@ -8426,7 +8426,7 @@
         <v>4</v>
       </c>
       <c r="AG59" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AH59" t="s">
         <v>4</v>
@@ -8480,7 +8480,7 @@
         <v>157</v>
       </c>
       <c r="L60" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M60" s="2" t="s">
         <v>111</v>
@@ -8543,7 +8543,7 @@
         <v>4</v>
       </c>
       <c r="AG60" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AH60" t="s">
         <v>4</v>
@@ -8597,7 +8597,7 @@
         <v>157</v>
       </c>
       <c r="L61" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M61" s="2" t="s">
         <v>111</v>
@@ -8660,7 +8660,7 @@
         <v>4</v>
       </c>
       <c r="AG61" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AH61" t="s">
         <v>4</v>
@@ -8716,7 +8716,7 @@
         <v>157</v>
       </c>
       <c r="L62" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M62" s="2" t="s">
         <v>20</v>
@@ -8779,7 +8779,7 @@
         <v>4</v>
       </c>
       <c r="AG62" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AH62" t="s">
         <v>4</v>
@@ -8826,7 +8826,7 @@
         <v>4</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J63" s="2"/>
       <c r="K63" s="2">
@@ -8894,7 +8894,7 @@
         <v>4</v>
       </c>
       <c r="AG63" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AH63" t="s">
         <v>4</v>

--- a/src/lib/excels/CI_Comps.xlsx
+++ b/src/lib/excels/CI_Comps.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3960B16-8E25-1A4A-BB2A-584F7A9CFA40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{D3960B16-8E25-1A4A-BB2A-584F7A9CFA40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21F9DD98-F54C-CD4E-B3CE-39D77ED7FDF6}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{AB0D5E22-6F5B-EC43-9578-14FEE2B3982A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1511" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1511" uniqueCount="253">
   <si>
     <t>Packaged</t>
   </si>
@@ -339,9 +339,6 @@
     <t>Yes - Snapshots</t>
   </si>
   <si>
-    <t>Ubuntu, Docker (installed on ubuntu)</t>
-  </si>
-  <si>
     <t>Hercules CI</t>
   </si>
   <si>
@@ -366,12 +363,6 @@
     <t>On-Premises</t>
   </si>
   <si>
-    <t>Docker, Linux VM, Mac VM, Windows VM</t>
-  </si>
-  <si>
-    <t>Linux VM 1GB 1; Container 1GB 2; Windows VM 1GB 2; MacOS VM 1GB 6</t>
-  </si>
-  <si>
     <t>Analytics in Pipeline history - https://buddy.works/docs/pipelines/introduction#pipeline-history</t>
   </si>
   <si>
@@ -765,9 +756,6 @@
     <t>GitHub</t>
   </si>
   <si>
-    <t>GitHub, Bitbucket, AWS CodeCommit, AWS S3</t>
-  </si>
-  <si>
     <t>GitHub, Bitbucket</t>
   </si>
   <si>
@@ -793,6 +781,15 @@
   </si>
   <si>
     <t>PriceExtraUser$</t>
+  </si>
+  <si>
+    <t>GitHub, Bitbucket, AWS CodeCommit</t>
+  </si>
+  <si>
+    <t>Docker, Linux, macOS, Windows</t>
+  </si>
+  <si>
+    <t>Linux VM 1GB 1; Container 1GB 2; Windows VM 1GB 2; macOSOS VM 1GB 6</t>
   </si>
 </sst>
 </file>
@@ -1414,9 +1411,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5061CA7-1C66-674F-BCE4-63FE3AA9D03F}">
   <dimension ref="A1:AM63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" topLeftCell="W1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AD2" sqref="AD2"/>
+      <selection pane="topRight" activeCell="Y44" sqref="Y44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1479,13 +1476,13 @@
         <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F1" t="s">
         <v>0</v>
@@ -1497,97 +1494,97 @@
         <v>2</v>
       </c>
       <c r="I1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J1" t="s">
+        <v>149</v>
+      </c>
+      <c r="K1" t="s">
+        <v>120</v>
+      </c>
+      <c r="L1" t="s">
+        <v>168</v>
+      </c>
+      <c r="M1" t="s">
+        <v>140</v>
+      </c>
+      <c r="N1" t="s">
+        <v>141</v>
+      </c>
+      <c r="O1" t="s">
+        <v>137</v>
+      </c>
+      <c r="P1" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>136</v>
+      </c>
+      <c r="R1" t="s">
         <v>122</v>
       </c>
-      <c r="J1" t="s">
-        <v>152</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="S1" t="s">
+        <v>132</v>
+      </c>
+      <c r="T1" t="s">
         <v>123</v>
       </c>
-      <c r="L1" t="s">
-        <v>171</v>
-      </c>
-      <c r="M1" t="s">
-        <v>143</v>
-      </c>
-      <c r="N1" t="s">
-        <v>144</v>
-      </c>
-      <c r="O1" t="s">
-        <v>140</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="U1" t="s">
+        <v>231</v>
+      </c>
+      <c r="V1" t="s">
+        <v>232</v>
+      </c>
+      <c r="W1" t="s">
+        <v>237</v>
+      </c>
+      <c r="X1" t="s">
+        <v>236</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>238</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>191</v>
+      </c>
+      <c r="AA1" t="s">
         <v>124</v>
       </c>
-      <c r="Q1" t="s">
-        <v>139</v>
-      </c>
-      <c r="R1" t="s">
+      <c r="AB1" t="s">
         <v>125</v>
       </c>
-      <c r="S1" t="s">
-        <v>135</v>
-      </c>
-      <c r="T1" t="s">
+      <c r="AC1" t="s">
         <v>126</v>
       </c>
-      <c r="U1" t="s">
-        <v>234</v>
-      </c>
-      <c r="V1" t="s">
-        <v>235</v>
-      </c>
-      <c r="W1" t="s">
-        <v>240</v>
-      </c>
-      <c r="X1" t="s">
-        <v>239</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>241</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>194</v>
-      </c>
-      <c r="AA1" t="s">
+      <c r="AD1" t="s">
+        <v>249</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AF1" t="s">
         <v>127</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AG1" t="s">
+        <v>214</v>
+      </c>
+      <c r="AH1" t="s">
         <v>128</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AI1" t="s">
+        <v>215</v>
+      </c>
+      <c r="AJ1" t="s">
         <v>129</v>
       </c>
-      <c r="AD1" t="s">
-        <v>253</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>136</v>
-      </c>
-      <c r="AF1" t="s">
+      <c r="AK1" t="s">
+        <v>216</v>
+      </c>
+      <c r="AL1" t="s">
         <v>130</v>
       </c>
-      <c r="AG1" t="s">
-        <v>217</v>
-      </c>
-      <c r="AH1" t="s">
+      <c r="AM1" t="s">
         <v>131</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>218</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>219</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>133</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.2">
@@ -1601,10 +1598,10 @@
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F2" t="s">
         <v>0</v>
@@ -1616,79 +1613,79 @@
         <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="M2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="N2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="O2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="P2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="Q2" t="s">
+        <v>227</v>
+      </c>
+      <c r="R2" t="s">
+        <v>244</v>
+      </c>
+      <c r="S2" t="s">
+        <v>243</v>
+      </c>
+      <c r="T2" t="s">
+        <v>245</v>
+      </c>
+      <c r="U2" t="s">
         <v>230</v>
       </c>
-      <c r="R2" t="s">
-        <v>248</v>
-      </c>
-      <c r="S2" t="s">
-        <v>247</v>
-      </c>
-      <c r="T2" t="s">
-        <v>249</v>
-      </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>233</v>
       </c>
-      <c r="V2" t="s">
-        <v>236</v>
-      </c>
       <c r="W2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="X2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="Y2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="AA2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="AB2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="AC2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="AD2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="AE2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="AF2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="AH2" t="s">
         <v>26</v>
       </c>
       <c r="AJ2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="AL2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="AM2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.2">
@@ -1717,20 +1714,20 @@
         <v>4</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2">
         <v>1800</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="O3" s="2">
         <v>0</v>
@@ -1787,7 +1784,7 @@
         <v>4</v>
       </c>
       <c r="AG3" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="AH3" t="s">
         <v>4</v>
@@ -1834,17 +1831,17 @@
         <v>3</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2">
         <v>52</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>20</v>
@@ -1883,7 +1880,7 @@
         <v>50</v>
       </c>
       <c r="Z4" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AA4" s="2">
         <v>5.9999999999999995E-4</v>
@@ -1904,7 +1901,7 @@
         <v>4</v>
       </c>
       <c r="AG4" s="10" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="AH4" t="s">
         <v>4</v>
@@ -1951,17 +1948,17 @@
         <v>3</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2">
         <v>52</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="N5" s="2" t="s">
         <v>20</v>
@@ -2000,7 +1997,7 @@
         <v>50</v>
       </c>
       <c r="Z5" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AA5" s="2">
         <v>5.9999999999999995E-4</v>
@@ -2021,7 +2018,7 @@
         <v>4</v>
       </c>
       <c r="AG5" s="10" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="AH5" t="s">
         <v>4</v>
@@ -2068,17 +2065,17 @@
         <v>3</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2">
         <v>52</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>20</v>
@@ -2117,7 +2114,7 @@
         <v>50</v>
       </c>
       <c r="Z6" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AA6" s="2">
         <v>5.9999999999999995E-4</v>
@@ -2138,7 +2135,7 @@
         <v>4</v>
       </c>
       <c r="AG6" s="10" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="AH6" t="s">
         <v>4</v>
@@ -2185,17 +2182,17 @@
         <v>3</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2">
         <v>52</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>20</v>
@@ -2234,7 +2231,7 @@
         <v>50</v>
       </c>
       <c r="Z7" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AA7" s="2">
         <v>5.9999999999999995E-4</v>
@@ -2255,7 +2252,7 @@
         <v>4</v>
       </c>
       <c r="AG7" s="10" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="AH7" t="s">
         <v>4</v>
@@ -2302,22 +2299,22 @@
         <v>4</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="K8" s="2">
         <v>168</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="O8" s="2">
         <v>30</v>
@@ -2353,7 +2350,7 @@
         <v>50</v>
       </c>
       <c r="Z8" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="AA8" s="2">
         <v>5.9999999999999995E-4</v>
@@ -2374,7 +2371,7 @@
         <v>4</v>
       </c>
       <c r="AG8" s="10" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="AH8" t="s">
         <v>4</v>
@@ -2421,22 +2418,22 @@
         <v>4</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="K9" s="2">
         <v>168</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="O9" s="2">
         <v>80</v>
@@ -2472,7 +2469,7 @@
         <v>50</v>
       </c>
       <c r="Z9" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="AA9" s="2">
         <v>5.9999999999999995E-4</v>
@@ -2494,7 +2491,7 @@
         <v>4</v>
       </c>
       <c r="AG9" s="10" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="AH9" t="s">
         <v>4</v>
@@ -2541,22 +2538,22 @@
         <v>4</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K10" s="2">
         <v>1479</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="O10" s="2">
         <v>1</v>
@@ -2613,7 +2610,7 @@
         <v>4</v>
       </c>
       <c r="AG10" s="11" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="AH10" t="s">
         <v>4</v>
@@ -2660,22 +2657,22 @@
         <v>4</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K11" s="2">
         <v>1479</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="O11" s="4">
         <v>1</v>
@@ -2732,7 +2729,7 @@
         <v>4</v>
       </c>
       <c r="AG11" s="11" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="AH11" t="s">
         <v>4</v>
@@ -2755,7 +2752,7 @@
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>13</v>
@@ -2779,20 +2776,20 @@
         <v>4</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2">
         <v>16562</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="O12" s="2" t="s">
         <v>5</v>
@@ -2829,7 +2826,7 @@
         <v>0.08</v>
       </c>
       <c r="Z12" s="2" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="AA12" s="2">
         <v>1</v>
@@ -2850,7 +2847,7 @@
         <v>4</v>
       </c>
       <c r="AG12" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AH12" t="s">
         <v>4</v>
@@ -2859,7 +2856,7 @@
         <v>33</v>
       </c>
       <c r="AJ12" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="AK12" s="2" t="s">
         <v>32</v>
@@ -2873,7 +2870,7 @@
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>31</v>
@@ -2899,20 +2896,20 @@
         <v>4</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2">
         <v>16562</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="O13" s="2" t="s">
         <v>5</v>
@@ -2949,7 +2946,7 @@
         <v>0.08</v>
       </c>
       <c r="Z13" s="2" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="AA13" s="2">
         <v>1</v>
@@ -2971,7 +2968,7 @@
         <v>4</v>
       </c>
       <c r="AG13" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AH13" t="s">
         <v>4</v>
@@ -2980,7 +2977,7 @@
         <v>33</v>
       </c>
       <c r="AJ13" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="AK13" s="2" t="s">
         <v>32</v>
@@ -2994,7 +2991,7 @@
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>14</v>
@@ -3020,20 +3017,20 @@
         <v>4</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2">
         <v>16562</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="O14" s="2" t="s">
         <v>5</v>
@@ -3070,7 +3067,7 @@
         <v>0.08</v>
       </c>
       <c r="Z14" s="2" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="AA14" s="2">
         <v>1</v>
@@ -3092,7 +3089,7 @@
         <v>4</v>
       </c>
       <c r="AG14" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AH14" t="s">
         <v>4</v>
@@ -3101,7 +3098,7 @@
         <v>33</v>
       </c>
       <c r="AJ14" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="AK14" s="2" t="s">
         <v>32</v>
@@ -3139,22 +3136,22 @@
         <v>4</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K15" s="2">
         <v>46</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="O15" s="2" t="s">
         <v>5</v>
@@ -3212,7 +3209,7 @@
         <v>4</v>
       </c>
       <c r="AG15" s="10" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="AH15" t="s">
         <v>4</v>
@@ -3259,20 +3256,20 @@
         <v>4</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2">
         <v>46</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="O16" s="2" t="s">
         <v>5</v>
@@ -3330,7 +3327,7 @@
         <v>4</v>
       </c>
       <c r="AG16" s="10" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="AH16" t="s">
         <v>4</v>
@@ -3377,20 +3374,20 @@
         <v>4</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="J17" s="2"/>
       <c r="K17" s="2">
         <v>46</v>
       </c>
       <c r="L17" s="10" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="O17" s="2" t="s">
         <v>5</v>
@@ -3448,7 +3445,7 @@
         <v>4</v>
       </c>
       <c r="AG17" s="10" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="AH17" t="s">
         <v>4</v>
@@ -3495,16 +3492,16 @@
         <v>4</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="K18" s="2">
         <v>29</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="M18" s="2" t="s">
         <v>43</v>
@@ -3567,7 +3564,7 @@
         <v>4</v>
       </c>
       <c r="AG18" s="10" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="AH18" s="2" t="s">
         <v>3</v>
@@ -3612,16 +3609,16 @@
         <v>4</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="K19" s="2">
         <v>29</v>
       </c>
       <c r="L19" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="M19" s="2" t="s">
         <v>43</v>
@@ -3684,7 +3681,7 @@
         <v>4</v>
       </c>
       <c r="AG19" s="10" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="AH19" s="2" t="s">
         <v>3</v>
@@ -3729,16 +3726,16 @@
         <v>4</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="K20" s="2">
         <v>29</v>
       </c>
       <c r="L20" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="M20" s="2" t="s">
         <v>43</v>
@@ -3801,7 +3798,7 @@
         <v>4</v>
       </c>
       <c r="AG20" s="10" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="AH20" s="2" t="s">
         <v>3</v>
@@ -3846,16 +3843,16 @@
         <v>4</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="K21" s="2">
         <v>29</v>
       </c>
       <c r="L21" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="M21" s="2" t="s">
         <v>43</v>
@@ -3918,7 +3915,7 @@
         <v>4</v>
       </c>
       <c r="AG21" s="10" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="AH21" s="2" t="s">
         <v>3</v>
@@ -3963,16 +3960,16 @@
         <v>4</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="K22" s="2">
         <v>29</v>
       </c>
       <c r="L22" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="M22" s="2" t="s">
         <v>44</v>
@@ -4035,7 +4032,7 @@
         <v>4</v>
       </c>
       <c r="AG22" s="10" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="AH22" s="2" t="s">
         <v>3</v>
@@ -4080,22 +4077,22 @@
         <v>4</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K23" s="2">
         <v>169</v>
       </c>
       <c r="L23" s="10" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M23" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="O23" s="2">
         <v>0</v>
@@ -4149,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="AF23" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="AG23" s="2" t="s">
         <v>49</v>
@@ -4201,22 +4198,22 @@
         <v>4</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K24" s="2">
         <v>169</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M24" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="O24" s="2">
         <v>0</v>
@@ -4270,7 +4267,7 @@
         <v>0</v>
       </c>
       <c r="AF24" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="AG24" s="2" t="s">
         <v>49</v>
@@ -4320,22 +4317,22 @@
         <v>4</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K25" s="2">
         <v>169</v>
       </c>
       <c r="L25" s="10" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="O25" s="2" t="s">
         <v>5</v>
@@ -4371,7 +4368,7 @@
         <v>40</v>
       </c>
       <c r="Z25" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="AA25" s="2">
         <v>8.0000000000000004E-4</v>
@@ -4389,7 +4386,7 @@
         <v>8000</v>
       </c>
       <c r="AF25" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="AG25" s="2" t="s">
         <v>49</v>
@@ -4439,19 +4436,19 @@
         <v>3</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="K26" s="2">
         <v>2</v>
       </c>
       <c r="L26" s="10" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="N26" s="2" t="s">
         <v>74</v>
@@ -4491,7 +4488,7 @@
         <v>20</v>
       </c>
       <c r="Z26" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="AA26" s="2">
         <v>1</v>
@@ -4512,7 +4509,7 @@
         <v>4</v>
       </c>
       <c r="AG26" s="10" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="AH26" t="s">
         <v>4</v>
@@ -4559,16 +4556,16 @@
         <v>4</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K27" s="2">
         <v>124</v>
       </c>
       <c r="L27" s="10" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="M27" s="2" t="s">
         <v>44</v>
@@ -4631,7 +4628,7 @@
         <v>4</v>
       </c>
       <c r="AG27" s="10" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="AH27" t="s">
         <v>4</v>
@@ -4640,7 +4637,7 @@
         <v>63</v>
       </c>
       <c r="AJ27" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="AK27" s="2" t="s">
         <v>64</v>
@@ -4678,16 +4675,16 @@
         <v>4</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K28" s="2">
         <v>124</v>
       </c>
       <c r="L28" s="10" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="M28" s="2" t="s">
         <v>44</v>
@@ -4750,7 +4747,7 @@
         <v>4</v>
       </c>
       <c r="AG28" s="10" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="AH28" t="s">
         <v>4</v>
@@ -4759,7 +4756,7 @@
         <v>63</v>
       </c>
       <c r="AJ28" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="AK28" s="2" t="s">
         <v>64</v>
@@ -4797,16 +4794,16 @@
         <v>4</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K29" s="2">
         <v>124</v>
       </c>
       <c r="L29" s="10" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="M29" s="2" t="s">
         <v>44</v>
@@ -4869,7 +4866,7 @@
         <v>4</v>
       </c>
       <c r="AG29" s="10" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="AH29" t="s">
         <v>4</v>
@@ -4878,7 +4875,7 @@
         <v>63</v>
       </c>
       <c r="AJ29" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="AK29" s="2" t="s">
         <v>64</v>
@@ -4916,16 +4913,16 @@
         <v>4</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K30" s="2">
         <v>124</v>
       </c>
       <c r="L30" s="10" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="M30" s="2" t="s">
         <v>20</v>
@@ -4988,7 +4985,7 @@
         <v>4</v>
       </c>
       <c r="AG30" s="10" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="AH30" t="s">
         <v>4</v>
@@ -4997,7 +4994,7 @@
         <v>63</v>
       </c>
       <c r="AJ30" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="AK30" s="2" t="s">
         <v>64</v>
@@ -5035,16 +5032,16 @@
         <v>4</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K31" s="2">
         <v>124</v>
       </c>
       <c r="L31" s="10" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="M31" s="2" t="s">
         <v>20</v>
@@ -5107,7 +5104,7 @@
         <v>4</v>
       </c>
       <c r="AG31" s="10" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="AH31" t="s">
         <v>4</v>
@@ -5116,7 +5113,7 @@
         <v>63</v>
       </c>
       <c r="AJ31" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="AK31" s="2" t="s">
         <v>64</v>
@@ -5154,16 +5151,16 @@
         <v>4</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K32" s="2">
         <v>124</v>
       </c>
       <c r="L32" s="10" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="M32" s="2" t="s">
         <v>20</v>
@@ -5226,7 +5223,7 @@
         <v>4</v>
       </c>
       <c r="AG32" s="10" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="AH32" t="s">
         <v>4</v>
@@ -5235,7 +5232,7 @@
         <v>63</v>
       </c>
       <c r="AJ32" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="AK32" s="2" t="s">
         <v>64</v>
@@ -5280,13 +5277,13 @@
         <v>298</v>
       </c>
       <c r="L33" s="10" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="M33" s="2" t="s">
         <v>74</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="O33" s="2" t="s">
         <v>5</v>
@@ -5344,7 +5341,7 @@
         <v>4</v>
       </c>
       <c r="AG33" s="10" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AH33" t="s">
         <v>4</v>
@@ -5353,7 +5350,7 @@
         <v>68</v>
       </c>
       <c r="AJ33" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="AK33" s="2" t="s">
         <v>64</v>
@@ -5398,13 +5395,13 @@
         <v>298</v>
       </c>
       <c r="L34" s="10" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="M34" s="2" t="s">
         <v>74</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="O34" s="2" t="s">
         <v>5</v>
@@ -5462,7 +5459,7 @@
         <v>4</v>
       </c>
       <c r="AG34" s="10" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AH34" t="s">
         <v>4</v>
@@ -5471,7 +5468,7 @@
         <v>68</v>
       </c>
       <c r="AJ34" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="AK34" s="2" t="s">
         <v>64</v>
@@ -5516,13 +5513,13 @@
         <v>298</v>
       </c>
       <c r="L35" s="10" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="M35" s="2" t="s">
         <v>74</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="O35" s="2" t="s">
         <v>5</v>
@@ -5580,7 +5577,7 @@
         <v>4</v>
       </c>
       <c r="AG35" s="10" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AH35" t="s">
         <v>4</v>
@@ -5589,7 +5586,7 @@
         <v>68</v>
       </c>
       <c r="AJ35" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="AK35" s="2" t="s">
         <v>64</v>
@@ -5636,13 +5633,13 @@
         <v>298</v>
       </c>
       <c r="L36" s="10" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="M36" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="O36" s="2">
         <v>0</v>
@@ -5700,7 +5697,7 @@
         <v>4</v>
       </c>
       <c r="AG36" s="10" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AH36" t="s">
         <v>4</v>
@@ -5709,7 +5706,7 @@
         <v>68</v>
       </c>
       <c r="AJ36" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="AK36" s="2" t="s">
         <v>64</v>
@@ -5747,22 +5744,22 @@
         <v>4</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J37" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K37" s="2">
         <v>165</v>
       </c>
       <c r="L37" s="10" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="M37" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="O37" s="2">
         <v>0</v>
@@ -5819,7 +5816,7 @@
         <v>4</v>
       </c>
       <c r="AG37" s="10" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="AH37" t="s">
         <v>4</v>
@@ -5866,22 +5863,22 @@
         <v>4</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J38" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K38" s="2">
         <v>165</v>
       </c>
       <c r="L38" s="10" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="M38" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="O38" s="2">
         <v>0</v>
@@ -5938,7 +5935,7 @@
         <v>4</v>
       </c>
       <c r="AG38" s="10" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="AH38" t="s">
         <v>4</v>
@@ -5985,22 +5982,22 @@
         <v>4</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J39" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K39" s="2">
         <v>165</v>
       </c>
       <c r="L39" s="10" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="M39" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="O39" s="2">
         <v>0</v>
@@ -6057,7 +6054,7 @@
         <v>4</v>
       </c>
       <c r="AG39" s="10" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="AH39" t="s">
         <v>4</v>
@@ -6106,22 +6103,22 @@
         <v>4</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J40" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K40" s="2">
         <v>165</v>
       </c>
       <c r="L40" s="10" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="M40" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="O40" s="2">
         <v>0</v>
@@ -6178,7 +6175,7 @@
         <v>4</v>
       </c>
       <c r="AG40" s="10" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="AH40" t="s">
         <v>4</v>
@@ -6225,16 +6222,16 @@
         <v>4</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K41" s="2">
         <v>90</v>
       </c>
       <c r="L41" s="10" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="M41" s="2" t="s">
         <v>20</v>
@@ -6297,7 +6294,7 @@
         <v>4</v>
       </c>
       <c r="AG41" s="10" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="AH41" t="s">
         <v>4</v>
@@ -6344,22 +6341,22 @@
         <v>4</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="K42" s="2">
         <v>10</v>
       </c>
       <c r="L42" s="10" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="M42" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="O42" s="2">
         <v>0</v>
@@ -6413,7 +6410,7 @@
         <v>0</v>
       </c>
       <c r="AF42" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="AG42" s="2" t="s">
         <v>49</v>
@@ -6463,22 +6460,22 @@
         <v>4</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="K43" s="2">
         <v>0</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="O43" s="2">
         <v>1</v>
@@ -6535,7 +6532,7 @@
         <v>4</v>
       </c>
       <c r="AG43" s="10" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="AH43" t="s">
         <v>4</v>
@@ -6584,22 +6581,22 @@
         <v>4</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="K44" s="2">
         <v>0</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="O44" s="2">
         <v>1</v>
@@ -6656,7 +6653,7 @@
         <v>4</v>
       </c>
       <c r="AG44" s="10" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="AH44" t="s">
         <v>4</v>
@@ -6705,22 +6702,22 @@
         <v>4</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="K45" s="2">
         <v>0</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="O45" s="2">
         <v>2</v>
@@ -6777,7 +6774,7 @@
         <v>4</v>
       </c>
       <c r="AG45" s="10" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="AH45" t="s">
         <v>4</v>
@@ -6824,22 +6821,22 @@
         <v>4</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="K46" s="2">
         <v>0</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="M46" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="O46" s="2" t="s">
         <v>5</v>
@@ -6896,7 +6893,7 @@
         <v>4</v>
       </c>
       <c r="AG46" s="10" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="AH46" t="s">
         <v>4</v>
@@ -6943,22 +6940,22 @@
         <v>4</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="K47" s="2">
         <v>0</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="M47" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="O47" s="2" t="s">
         <v>5</v>
@@ -7015,7 +7012,7 @@
         <v>4</v>
       </c>
       <c r="AG47" s="10" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="AH47" t="s">
         <v>4</v>
@@ -7062,22 +7059,22 @@
         <v>4</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J48" s="10" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="K48" s="2">
         <v>5</v>
       </c>
       <c r="L48" s="10" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="M48" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="O48" s="2">
         <v>0</v>
@@ -7134,7 +7131,7 @@
         <v>4</v>
       </c>
       <c r="AG48" s="10" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="AH48" t="s">
         <v>4</v>
@@ -7181,16 +7178,16 @@
         <v>4</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J49" s="10" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="K49" s="2">
         <v>149</v>
       </c>
       <c r="L49" s="10" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M49" s="2" t="s">
         <v>20</v>
@@ -7253,7 +7250,7 @@
         <v>4</v>
       </c>
       <c r="AG49" s="10" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="AH49" s="2" t="s">
         <v>3</v>
@@ -7300,22 +7297,22 @@
         <v>4</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="K50" s="2">
         <v>44</v>
       </c>
       <c r="L50" s="10" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="M50" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="O50" s="2">
         <v>0</v>
@@ -7419,22 +7416,22 @@
         <v>4</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="K51" s="2">
         <v>44</v>
       </c>
       <c r="L51" s="10" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="M51" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="O51" s="2">
         <v>0</v>
@@ -7536,23 +7533,23 @@
         <v>3</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K52" s="2">
         <v>0</v>
       </c>
       <c r="L52" s="2"/>
       <c r="M52" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="P52" s="2" t="s">
         <v>20</v>
@@ -7606,7 +7603,7 @@
         <v>4</v>
       </c>
       <c r="AG52" s="10" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="AH52" t="s">
         <v>4</v>
@@ -7653,23 +7650,23 @@
         <v>3</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K53" s="2">
         <v>0</v>
       </c>
       <c r="L53" s="2"/>
       <c r="M53" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="P53" s="2" t="s">
         <v>20</v>
@@ -7724,7 +7721,7 @@
         <v>4</v>
       </c>
       <c r="AG53" s="10" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="AH53" t="s">
         <v>4</v>
@@ -7771,10 +7768,10 @@
         <v>3</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J54" s="10" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="K54" s="2">
         <v>0</v>
@@ -7841,7 +7838,7 @@
         <v>4</v>
       </c>
       <c r="AG54" s="10" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="AH54" t="s">
         <v>4</v>
@@ -7888,19 +7885,19 @@
         <v>4</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="J55" s="10" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="K55" s="2">
         <v>7</v>
       </c>
       <c r="L55" s="10" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="N55" s="2" t="s">
         <v>20</v>
@@ -7960,7 +7957,7 @@
         <v>4</v>
       </c>
       <c r="AG55" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="AH55" s="2" t="s">
         <v>3</v>
@@ -8007,19 +8004,19 @@
         <v>4</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="J56" s="10" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="K56" s="2">
         <v>7</v>
       </c>
       <c r="L56" s="10" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="N56" s="2" t="s">
         <v>20</v>
@@ -8102,10 +8099,10 @@
     </row>
     <row r="57" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="C57">
         <v>55</v>
@@ -8126,7 +8123,7 @@
         <v>4</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="J57" s="2"/>
       <c r="K57" s="2">
@@ -8137,7 +8134,7 @@
         <v>20</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O57" s="2">
         <v>0</v>
@@ -8194,7 +8191,7 @@
         <v>4</v>
       </c>
       <c r="AG57" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="AH57" s="2" t="s">
         <v>3</v>
@@ -8217,7 +8214,7 @@
     </row>
     <row r="58" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>13</v>
@@ -8241,7 +8238,7 @@
         <v>3</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J58" s="2"/>
       <c r="K58" s="2">
@@ -8309,7 +8306,7 @@
         <v>4</v>
       </c>
       <c r="AG58" s="10" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="AH58" s="2" t="s">
         <v>3</v>
@@ -8332,7 +8329,7 @@
     </row>
     <row r="59" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>13</v>
@@ -8356,17 +8353,17 @@
         <v>4</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J59" s="2"/>
       <c r="K59" s="2">
         <v>157</v>
       </c>
       <c r="L59" s="10" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>111</v>
+        <v>251</v>
       </c>
       <c r="N59" s="2" t="s">
         <v>20</v>
@@ -8405,40 +8402,40 @@
         <v>6</v>
       </c>
       <c r="Z59" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA59" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB59" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC59" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD59" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE59" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF59" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG59" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="AH59" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI59" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="AA59" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB59" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC59" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD59" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE59" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF59" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AG59" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="AH59" t="s">
-        <v>4</v>
-      </c>
-      <c r="AI59" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="AJ59" t="s">
         <v>4</v>
       </c>
       <c r="AK59" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="AL59" s="2" t="s">
         <v>3</v>
@@ -8449,7 +8446,7 @@
     </row>
     <row r="60" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>42</v>
@@ -8473,17 +8470,17 @@
         <v>4</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J60" s="2"/>
       <c r="K60" s="2">
         <v>157</v>
       </c>
       <c r="L60" s="10" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>111</v>
+        <v>251</v>
       </c>
       <c r="N60" s="2" t="s">
         <v>20</v>
@@ -8522,7 +8519,7 @@
         <v>6</v>
       </c>
       <c r="Z60" s="2" t="s">
-        <v>112</v>
+        <v>252</v>
       </c>
       <c r="AA60" s="2">
         <v>1.5E-3</v>
@@ -8543,19 +8540,19 @@
         <v>4</v>
       </c>
       <c r="AG60" s="10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="AH60" t="s">
         <v>4</v>
       </c>
       <c r="AI60" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="AJ60" t="s">
         <v>4</v>
       </c>
       <c r="AK60" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="AL60" s="2" t="s">
         <v>3</v>
@@ -8566,10 +8563,10 @@
     </row>
     <row r="61" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="C61">
         <v>59</v>
@@ -8590,17 +8587,17 @@
         <v>4</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J61" s="2"/>
       <c r="K61" s="2">
         <v>157</v>
       </c>
       <c r="L61" s="10" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>111</v>
+        <v>251</v>
       </c>
       <c r="N61" s="2" t="s">
         <v>20</v>
@@ -8639,7 +8636,7 @@
         <v>6</v>
       </c>
       <c r="Z61" s="2" t="s">
-        <v>112</v>
+        <v>252</v>
       </c>
       <c r="AA61" s="2">
         <v>1.5E-3</v>
@@ -8660,19 +8657,19 @@
         <v>4</v>
       </c>
       <c r="AG61" s="10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="AH61" t="s">
         <v>4</v>
       </c>
       <c r="AI61" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="AJ61" t="s">
         <v>4</v>
       </c>
       <c r="AK61" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="AL61" s="2" t="s">
         <v>3</v>
@@ -8683,10 +8680,10 @@
     </row>
     <row r="62" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C62">
         <v>60</v>
@@ -8709,20 +8706,20 @@
         <v>4</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J62" s="2"/>
       <c r="K62" s="2">
         <v>157</v>
       </c>
       <c r="L62" s="10" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="M62" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>111</v>
+        <v>251</v>
       </c>
       <c r="O62" s="2">
         <v>0</v>
@@ -8779,19 +8776,19 @@
         <v>4</v>
       </c>
       <c r="AG62" s="10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="AH62" t="s">
         <v>4</v>
       </c>
       <c r="AI62" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="AJ62" t="s">
         <v>4</v>
       </c>
       <c r="AK62" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="AL62" s="2" t="s">
         <v>3</v>
@@ -8802,7 +8799,7 @@
     </row>
     <row r="63" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>66</v>
@@ -8826,7 +8823,7 @@
         <v>4</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="J63" s="2"/>
       <c r="K63" s="2">
@@ -8834,7 +8831,7 @@
       </c>
       <c r="L63" s="2"/>
       <c r="M63" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N63" s="2" t="s">
         <v>20</v>
@@ -8894,19 +8891,19 @@
         <v>4</v>
       </c>
       <c r="AG63" s="10" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="AH63" t="s">
         <v>4</v>
       </c>
       <c r="AI63" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="AJ63" t="s">
         <v>4</v>
       </c>
       <c r="AK63" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AL63" s="2" t="s">
         <v>25</v>

--- a/src/lib/excels/CI_Comps.xlsx
+++ b/src/lib/excels/CI_Comps.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{D3960B16-8E25-1A4A-BB2A-584F7A9CFA40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21F9DD98-F54C-CD4E-B3CE-39D77ED7FDF6}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="13_ncr:1_{D3960B16-8E25-1A4A-BB2A-584F7A9CFA40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39639059-0FF9-CC4B-A29D-4CB9EE66B8D1}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{AB0D5E22-6F5B-EC43-9578-14FEE2B3982A}"/>
   </bookViews>
@@ -31,10 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1511" uniqueCount="253">
-  <si>
-    <t>Packaged</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1511" uniqueCount="254">
   <si>
     <t>Self-hosted</t>
   </si>
@@ -790,6 +787,12 @@
   </si>
   <si>
     <t>Linux VM 1GB 1; Container 1GB 2; Windows VM 1GB 2; macOSOS VM 1GB 6</t>
+  </si>
+  <si>
+    <t>ExtrasIncluded</t>
+  </si>
+  <si>
+    <t>Extras Included</t>
   </si>
 </sst>
 </file>
@@ -1064,6 +1067,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{90D78187-FC73-CA42-987A-26501F3BB419}" name="Table1" displayName="Table1" ref="A1:AM63" totalsRowShown="0" dataDxfId="39">
   <autoFilter ref="A1:AM63" xr:uid="{90D78187-FC73-CA42-987A-26501F3BB419}"/>
@@ -1073,7 +1080,7 @@
     <tableColumn id="18" xr3:uid="{F85CEF5E-2FD1-7748-B1E8-C94BEA6C196E}" name="colID" dataDxfId="36"/>
     <tableColumn id="2" xr3:uid="{FD9C21C1-BD38-9140-B054-16B45B06E46F}" name="LicenseCost$PerMonth" dataDxfId="35"/>
     <tableColumn id="7" xr3:uid="{B2BCE66F-4C43-4347-A572-80C0C1047FE8}" name="CalculatedCost" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{6C28A744-960C-D84A-8209-C794E2AE8376}" name="Packaged" dataDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{6C28A744-960C-D84A-8209-C794E2AE8376}" name="ExtrasIncluded" dataDxfId="33"/>
     <tableColumn id="4" xr3:uid="{74A90171-DF17-9142-A615-95A6E3E853DD}" name="Self-hosted" dataDxfId="32"/>
     <tableColumn id="5" xr3:uid="{FC8E0B97-C6D4-4348-A617-7CC0F3E15ACD}" name="CD" dataDxfId="31"/>
     <tableColumn id="39" xr3:uid="{E426AF46-7927-8B42-A9F8-944823B086B4}" name="GitPlatformsCompatible" dataDxfId="30"/>
@@ -1411,9 +1418,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5061CA7-1C66-674F-BCE4-63FE3AA9D03F}">
   <dimension ref="A1:AM63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="W1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Y44" sqref="Y44"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1470,231 +1477,231 @@
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
         <v>118</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>148</v>
+      </c>
+      <c r="K1" t="s">
         <v>119</v>
       </c>
-      <c r="J1" t="s">
-        <v>149</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
+        <v>167</v>
+      </c>
+      <c r="M1" t="s">
+        <v>139</v>
+      </c>
+      <c r="N1" t="s">
+        <v>140</v>
+      </c>
+      <c r="O1" t="s">
+        <v>136</v>
+      </c>
+      <c r="P1" t="s">
         <v>120</v>
       </c>
-      <c r="L1" t="s">
-        <v>168</v>
-      </c>
-      <c r="M1" t="s">
-        <v>140</v>
-      </c>
-      <c r="N1" t="s">
-        <v>141</v>
-      </c>
-      <c r="O1" t="s">
-        <v>137</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
+        <v>135</v>
+      </c>
+      <c r="R1" t="s">
         <v>121</v>
       </c>
-      <c r="Q1" t="s">
-        <v>136</v>
-      </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
+        <v>131</v>
+      </c>
+      <c r="T1" t="s">
         <v>122</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
+        <v>230</v>
+      </c>
+      <c r="V1" t="s">
+        <v>231</v>
+      </c>
+      <c r="W1" t="s">
+        <v>236</v>
+      </c>
+      <c r="X1" t="s">
+        <v>235</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>237</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>248</v>
+      </c>
+      <c r="AE1" t="s">
         <v>132</v>
       </c>
-      <c r="T1" t="s">
-        <v>123</v>
-      </c>
-      <c r="U1" t="s">
-        <v>231</v>
-      </c>
-      <c r="V1" t="s">
-        <v>232</v>
-      </c>
-      <c r="W1" t="s">
-        <v>237</v>
-      </c>
-      <c r="X1" t="s">
-        <v>236</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>238</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>191</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AC1" t="s">
+      <c r="AF1" t="s">
         <v>126</v>
       </c>
-      <c r="AD1" t="s">
-        <v>249</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>133</v>
-      </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
+        <v>213</v>
+      </c>
+      <c r="AH1" t="s">
         <v>127</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AI1" t="s">
         <v>214</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AJ1" t="s">
         <v>128</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AK1" t="s">
         <v>215</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AL1" t="s">
         <v>129</v>
       </c>
-      <c r="AK1" t="s">
-        <v>216</v>
-      </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>130</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F2" t="s">
-        <v>0</v>
+        <v>253</v>
       </c>
       <c r="G2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="s">
+        <v>143</v>
+      </c>
+      <c r="K2" t="s">
         <v>144</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>145</v>
       </c>
-      <c r="M2" t="s">
-        <v>146</v>
-      </c>
       <c r="N2" t="s">
+        <v>241</v>
+      </c>
+      <c r="O2" t="s">
+        <v>228</v>
+      </c>
+      <c r="P2" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>226</v>
+      </c>
+      <c r="R2" t="s">
+        <v>243</v>
+      </c>
+      <c r="S2" t="s">
         <v>242</v>
       </c>
-      <c r="O2" t="s">
+      <c r="T2" t="s">
+        <v>244</v>
+      </c>
+      <c r="U2" t="s">
         <v>229</v>
       </c>
-      <c r="P2" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>227</v>
-      </c>
-      <c r="R2" t="s">
-        <v>244</v>
-      </c>
-      <c r="S2" t="s">
-        <v>243</v>
-      </c>
-      <c r="T2" t="s">
-        <v>245</v>
-      </c>
-      <c r="U2" t="s">
-        <v>230</v>
-      </c>
       <c r="V2" t="s">
+        <v>232</v>
+      </c>
+      <c r="W2" t="s">
         <v>233</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>234</v>
       </c>
-      <c r="X2" t="s">
-        <v>235</v>
-      </c>
       <c r="Y2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AA2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AB2" t="s">
+        <v>221</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>220</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>219</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>218</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ2" t="s">
         <v>222</v>
       </c>
-      <c r="AC2" t="s">
-        <v>221</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>220</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>219</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>218</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AJ2" t="s">
+      <c r="AL2" t="s">
         <v>223</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AM2" t="s">
         <v>224</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="C3">
         <v>1</v>
       </c>
@@ -1705,101 +1712,101 @@
         <v>0</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2">
         <v>1800</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O3" s="2">
         <v>0</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="R3" s="2">
+        <v>0</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="U3" s="2">
+        <v>0</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG3" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL3" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="R3" s="2">
-        <v>0</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="T3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="U3" s="2">
-        <v>0</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AG3" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AI3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AK3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AL3" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="AM3" s="2">
         <v>3</v>
@@ -1807,10 +1814,10 @@
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -1822,50 +1829,50 @@
         <v>64</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2">
         <v>52</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O4" s="2">
         <v>1</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q4" s="2">
         <v>0</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T4" s="2">
         <v>0</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="V4" s="2">
         <v>0</v>
@@ -1880,16 +1887,16 @@
         <v>50</v>
       </c>
       <c r="Z4" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AA4" s="2">
         <v>5.9999999999999995E-4</v>
       </c>
       <c r="AB4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AD4" s="2">
         <v>0</v>
@@ -1898,25 +1905,25 @@
         <v>0</v>
       </c>
       <c r="AF4" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG4" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AH4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI4" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL4" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AM4" s="2">
         <v>3</v>
@@ -1924,10 +1931,10 @@
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -1939,50 +1946,50 @@
         <v>119</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2">
         <v>52</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O5" s="2">
         <v>2</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q5" s="2">
         <v>0</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T5" s="2">
         <v>0</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="V5" s="2">
         <v>0</v>
@@ -1997,16 +2004,16 @@
         <v>50</v>
       </c>
       <c r="Z5" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AA5" s="2">
         <v>5.9999999999999995E-4</v>
       </c>
       <c r="AB5" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC5" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AD5" s="2">
         <v>0</v>
@@ -2015,25 +2022,25 @@
         <v>0</v>
       </c>
       <c r="AF5" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG5" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AH5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI5" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK5" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL5" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AM5" s="2">
         <v>3</v>
@@ -2041,10 +2048,10 @@
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -2056,50 +2063,50 @@
         <v>229</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2">
         <v>52</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O6" s="2">
         <v>5</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="2">
         <v>0</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T6" s="2">
         <v>0</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="V6" s="2">
         <v>0</v>
@@ -2114,16 +2121,16 @@
         <v>50</v>
       </c>
       <c r="Z6" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AA6" s="2">
         <v>5.9999999999999995E-4</v>
       </c>
       <c r="AB6" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC6" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AD6" s="2">
         <v>0</v>
@@ -2132,25 +2139,25 @@
         <v>0</v>
       </c>
       <c r="AF6" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG6" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AH6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI6" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK6" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL6" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AM6" s="2">
         <v>3</v>
@@ -2158,10 +2165,10 @@
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -2173,50 +2180,50 @@
         <v>449</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2">
         <v>52</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O7" s="2">
         <v>10</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q7" s="2">
         <v>0</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T7" s="2">
         <v>0</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="V7" s="2">
         <v>0</v>
@@ -2231,16 +2238,16 @@
         <v>50</v>
       </c>
       <c r="Z7" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AA7" s="2">
         <v>5.9999999999999995E-4</v>
       </c>
       <c r="AB7" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC7" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AD7" s="2">
         <v>0</v>
@@ -2249,25 +2256,25 @@
         <v>0</v>
       </c>
       <c r="AF7" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG7" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AH7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI7" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL7" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AM7" s="2">
         <v>3</v>
@@ -2275,10 +2282,10 @@
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -2290,46 +2297,46 @@
         <v>0</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I8" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J8" s="10" t="s">
         <v>150</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>151</v>
       </c>
       <c r="K8" s="2">
         <v>168</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O8" s="2">
         <v>30</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q8" s="2">
         <v>5</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T8" s="2">
         <v>30000</v>
@@ -2350,7 +2357,7 @@
         <v>50</v>
       </c>
       <c r="Z8" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AA8" s="2">
         <v>5.9999999999999995E-4</v>
@@ -2368,25 +2375,25 @@
         <v>0</v>
       </c>
       <c r="AF8" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG8" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AH8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI8" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL8" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM8" s="2">
         <v>3</v>
@@ -2394,10 +2401,10 @@
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="C9">
         <v>7</v>
@@ -2409,46 +2416,46 @@
         <v>15</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I9" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J9" s="10" t="s">
         <v>150</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>151</v>
       </c>
       <c r="K9" s="2">
         <v>168</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O9" s="2">
         <v>80</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="2">
         <v>20</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T9" s="2">
         <v>55000</v>
@@ -2469,7 +2476,7 @@
         <v>50</v>
       </c>
       <c r="Z9" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AA9" s="2">
         <v>5.9999999999999995E-4</v>
@@ -2478,35 +2485,35 @@
         <v>5</v>
       </c>
       <c r="AC9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD9" s="2">
-        <f>25000*Table1[[#This Row],[PricePerExtraCredit]]</f>
-        <v>14.999999999999998</v>
+        <v>4</v>
+      </c>
+      <c r="AD9" s="8">
+        <f>ROUND(25000*Table1[[#This Row],[PricePerExtraCredit]],2)</f>
+        <v>15</v>
       </c>
       <c r="AE9" s="2">
         <v>0</v>
       </c>
       <c r="AF9" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG9" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AH9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI9" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK9" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL9" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AM9" s="2">
         <v>3</v>
@@ -2514,10 +2521,10 @@
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -2529,37 +2536,37 @@
         <v>0</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K10" s="2">
         <v>1479</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O10" s="2">
         <v>1</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q10" s="2">
         <v>1</v>
@@ -2568,7 +2575,7 @@
         <v>15</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T10" s="2">
         <v>1800</v>
@@ -2592,13 +2599,13 @@
         <v>1</v>
       </c>
       <c r="AA10" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AB10" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC10" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AD10" s="2">
         <v>0</v>
@@ -2607,25 +2614,25 @@
         <v>0</v>
       </c>
       <c r="AF10" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG10" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AH10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI10" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK10" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL10" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM10" s="2">
         <v>2</v>
@@ -2633,10 +2640,10 @@
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="C11">
         <v>9</v>
@@ -2648,31 +2655,31 @@
         <v>40</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K11" s="2">
         <v>1479</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O11" s="4">
         <v>1</v>
@@ -2687,10 +2694,10 @@
         <v>15</v>
       </c>
       <c r="S11" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T11" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U11" s="2">
         <v>0</v>
@@ -2714,10 +2721,10 @@
         <v>0</v>
       </c>
       <c r="AB11" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC11" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AD11" s="2">
         <v>0</v>
@@ -2726,25 +2733,25 @@
         <v>0</v>
       </c>
       <c r="AF11" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG11" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AH11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI11" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK11" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL11" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AM11" s="2">
         <v>2</v>
@@ -2752,10 +2759,10 @@
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -2767,44 +2774,44 @@
         <v>0</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2">
         <v>16562</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P12" s="2">
         <v>0</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R12" s="2">
         <v>0</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T12" s="2">
         <f>2000*0.008</f>
@@ -2826,7 +2833,7 @@
         <v>0.08</v>
       </c>
       <c r="Z12" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AA12" s="2">
         <v>1</v>
@@ -2835,7 +2842,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AD12" s="2">
         <v>0</v>
@@ -2844,25 +2851,25 @@
         <v>0</v>
       </c>
       <c r="AF12" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG12" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AH12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI12" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AJ12" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AK12" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AL12" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AM12" s="2">
         <v>2</v>
@@ -2870,10 +2877,10 @@
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13">
         <v>11</v>
@@ -2887,44 +2894,44 @@
         <v>4</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2">
         <v>16562</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P13" s="2">
         <v>0</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R13" s="2">
         <v>0</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T13" s="2">
         <f>3000*0.008</f>
@@ -2946,7 +2953,7 @@
         <v>0.08</v>
       </c>
       <c r="Z13" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AA13" s="2">
         <v>1</v>
@@ -2955,7 +2962,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AD13" s="2">
         <f>48/12</f>
@@ -2965,25 +2972,25 @@
         <v>0</v>
       </c>
       <c r="AF13" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG13" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AH13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI13" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AJ13" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AK13" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AL13" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM13" s="2">
         <v>2</v>
@@ -2991,10 +2998,10 @@
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14">
         <v>12</v>
@@ -3008,44 +3015,44 @@
         <v>21</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2">
         <v>16562</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P14" s="2">
         <v>0</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R14" s="2">
         <v>0</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T14" s="2">
         <f>50000*0.008</f>
@@ -3067,7 +3074,7 @@
         <v>0.08</v>
       </c>
       <c r="Z14" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AA14" s="2">
         <v>1</v>
@@ -3076,7 +3083,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AD14" s="2">
         <f>252/12</f>
@@ -3086,25 +3093,25 @@
         <v>0</v>
       </c>
       <c r="AF14" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG14" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AH14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI14" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AJ14" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AK14" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AL14" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AM14" s="2">
         <v>2</v>
@@ -3112,10 +3119,10 @@
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15">
         <v>13</v>
@@ -3127,46 +3134,46 @@
         <v>0</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K15" s="2">
         <v>46</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P15" s="2">
         <v>0</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R15" s="2">
         <v>0</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T15" s="4">
         <v>400</v>
@@ -3206,25 +3213,25 @@
         <v>0</v>
       </c>
       <c r="AF15" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG15" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AH15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI15" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AJ15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK15" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AL15" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AM15" s="2">
         <v>3</v>
@@ -3232,10 +3239,10 @@
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16">
         <v>14</v>
@@ -3247,44 +3254,44 @@
         <v>19</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2">
         <v>46</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P16" s="2">
         <v>0</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R16" s="2">
         <v>0</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T16" s="4">
         <v>10000</v>
@@ -3315,7 +3322,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AD16" s="2">
         <v>19</v>
@@ -3324,25 +3331,25 @@
         <v>0</v>
       </c>
       <c r="AF16" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG16" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AH16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI16" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AJ16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK16" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AL16" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AM16" s="2">
         <v>3</v>
@@ -3350,10 +3357,10 @@
     </row>
     <row r="17" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="C17">
         <v>15</v>
@@ -3365,44 +3372,44 @@
         <v>99</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J17" s="2"/>
       <c r="K17" s="2">
         <v>46</v>
       </c>
       <c r="L17" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P17" s="2">
         <v>0</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R17" s="2">
         <v>0</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T17" s="4">
         <v>50000</v>
@@ -3433,7 +3440,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AD17" s="2">
         <v>99</v>
@@ -3442,25 +3449,25 @@
         <v>0</v>
       </c>
       <c r="AF17" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG17" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AH17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI17" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AJ17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK17" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AL17" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AM17" s="2">
         <v>3</v>
@@ -3468,10 +3475,10 @@
     </row>
     <row r="18" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C18">
         <v>16</v>
@@ -3483,43 +3490,43 @@
         <v>0</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K18" s="2">
         <v>29</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O18" s="2">
         <v>1</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="2">
         <v>0</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S18" s="2">
         <v>100</v>
@@ -3528,7 +3535,7 @@
         <v>0</v>
       </c>
       <c r="U18" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="V18" s="2">
         <v>0</v>
@@ -3549,10 +3556,10 @@
         <v>0</v>
       </c>
       <c r="AB18" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC18" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AD18" s="2">
         <v>0</v>
@@ -3561,23 +3568,23 @@
         <v>0</v>
       </c>
       <c r="AF18" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG18" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AH18" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI18" s="2"/>
       <c r="AJ18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK18" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AL18" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM18" s="2">
         <v>2</v>
@@ -3585,10 +3592,10 @@
     </row>
     <row r="19" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="C19">
         <v>17</v>
@@ -3600,52 +3607,52 @@
         <v>49</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K19" s="2">
         <v>29</v>
       </c>
       <c r="L19" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O19" s="2">
         <v>1</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q19" s="2">
         <v>0</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T19" s="2">
         <v>0</v>
       </c>
       <c r="U19" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="V19" s="2">
         <v>0</v>
@@ -3666,10 +3673,10 @@
         <v>0</v>
       </c>
       <c r="AB19" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC19" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AD19" s="2">
         <v>0</v>
@@ -3678,23 +3685,23 @@
         <v>0</v>
       </c>
       <c r="AF19" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG19" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AH19" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI19" s="2"/>
       <c r="AJ19" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK19" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AL19" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM19" s="2">
         <v>2</v>
@@ -3702,10 +3709,10 @@
     </row>
     <row r="20" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C20">
         <v>18</v>
@@ -3717,52 +3724,52 @@
         <v>99</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K20" s="2">
         <v>29</v>
       </c>
       <c r="L20" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O20" s="2">
         <v>2</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q20" s="2">
         <v>0</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T20" s="2">
         <v>0</v>
       </c>
       <c r="U20" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="V20" s="2">
         <v>0</v>
@@ -3783,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="AB20" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC20" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AD20" s="2">
         <v>0</v>
@@ -3795,23 +3802,23 @@
         <v>0</v>
       </c>
       <c r="AF20" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG20" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AH20" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI20" s="2"/>
       <c r="AJ20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK20" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AL20" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM20" s="2">
         <v>2</v>
@@ -3819,10 +3826,10 @@
     </row>
     <row r="21" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C21">
         <v>19</v>
@@ -3834,52 +3841,52 @@
         <v>399</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K21" s="2">
         <v>29</v>
       </c>
       <c r="L21" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O21" s="2">
         <v>4</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="2">
         <v>0</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T21" s="2">
         <v>0</v>
       </c>
       <c r="U21" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="V21" s="2">
         <v>0</v>
@@ -3900,10 +3907,10 @@
         <v>0</v>
       </c>
       <c r="AB21" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC21" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AD21" s="2">
         <v>0</v>
@@ -3912,23 +3919,23 @@
         <v>0</v>
       </c>
       <c r="AF21" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG21" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AH21" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI21" s="2"/>
       <c r="AJ21" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK21" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AL21" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM21" s="2">
         <v>2</v>
@@ -3936,10 +3943,10 @@
     </row>
     <row r="22" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C22">
         <v>20</v>
@@ -3951,31 +3958,31 @@
         <v>75</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K22" s="2">
         <v>29</v>
       </c>
       <c r="L22" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O22" s="2">
         <v>1</v>
@@ -3987,16 +3994,16 @@
         <v>0</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T22" s="2">
         <v>0</v>
       </c>
       <c r="U22" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="V22" s="2">
         <v>0</v>
@@ -4017,10 +4024,10 @@
         <v>0</v>
       </c>
       <c r="AB22" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC22" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AD22" s="2">
         <v>0</v>
@@ -4029,23 +4036,23 @@
         <v>0</v>
       </c>
       <c r="AF22" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG22" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AH22" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI22" s="2"/>
       <c r="AJ22" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK22" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AL22" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM22" s="2">
         <v>2</v>
@@ -4053,10 +4060,10 @@
     </row>
     <row r="23" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="C23">
         <v>21</v>
@@ -4068,76 +4075,76 @@
         <v>0</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K23" s="2">
         <v>169</v>
       </c>
       <c r="L23" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O23" s="2">
         <v>0</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R23" s="2">
         <v>0</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T23" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U23" s="2">
         <v>0</v>
       </c>
       <c r="V23" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="W23" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="X23" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Y23" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Z23" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AA23" s="2">
         <v>0</v>
       </c>
       <c r="AB23" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC23" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AD23" s="2">
         <v>0</v>
@@ -4146,25 +4153,25 @@
         <v>0</v>
       </c>
       <c r="AF23" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AG23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI23" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK23" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AH23" t="s">
-        <v>4</v>
-      </c>
-      <c r="AI23" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AJ23" t="s">
-        <v>4</v>
-      </c>
-      <c r="AK23" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="AL23" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AM23" s="2">
         <v>3</v>
@@ -4172,10 +4179,10 @@
     </row>
     <row r="24" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C24">
         <v>22</v>
@@ -4189,76 +4196,76 @@
         <v>166.58333333333334</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K24" s="2">
         <v>169</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O24" s="2">
         <v>0</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R24" s="2">
         <v>0</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T24" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U24" s="2">
         <v>0</v>
       </c>
       <c r="V24" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="W24" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="X24" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Y24" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Z24" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AA24" s="2">
         <v>0</v>
       </c>
       <c r="AB24" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC24" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AD24" s="2">
         <v>0</v>
@@ -4267,25 +4274,25 @@
         <v>0</v>
       </c>
       <c r="AF24" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AG24" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI24" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK24" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AH24" t="s">
-        <v>4</v>
-      </c>
-      <c r="AI24" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AJ24" t="s">
-        <v>4</v>
-      </c>
-      <c r="AK24" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="AL24" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM24" s="2">
         <v>3</v>
@@ -4293,10 +4300,10 @@
     </row>
     <row r="25" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C25">
         <v>23</v>
@@ -4308,46 +4315,46 @@
         <v>45</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K25" s="2">
         <v>169</v>
       </c>
       <c r="L25" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P25" s="2">
         <v>0</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R25" s="2">
         <v>0</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T25" s="2">
         <v>24000</v>
@@ -4359,7 +4366,7 @@
         <v>10</v>
       </c>
       <c r="W25" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="X25" s="2">
         <v>20</v>
@@ -4368,7 +4375,7 @@
         <v>40</v>
       </c>
       <c r="Z25" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA25" s="2">
         <v>8.0000000000000004E-4</v>
@@ -4377,7 +4384,7 @@
         <v>3</v>
       </c>
       <c r="AC25" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AD25" s="2">
         <v>15</v>
@@ -4386,25 +4393,25 @@
         <v>8000</v>
       </c>
       <c r="AF25" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AG25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI25" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK25" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AH25" t="s">
-        <v>4</v>
-      </c>
-      <c r="AI25" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AJ25" t="s">
-        <v>4</v>
-      </c>
-      <c r="AK25" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="AL25" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM25" s="2">
         <v>3</v>
@@ -4412,10 +4419,10 @@
     </row>
     <row r="26" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="C26">
         <v>24</v>
@@ -4427,46 +4434,46 @@
         <v>0</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K26" s="2">
         <v>2</v>
       </c>
       <c r="L26" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P26" s="2">
         <v>0</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R26" s="2">
         <v>0</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T26" s="2">
         <f>100*0.002</f>
@@ -4479,25 +4486,25 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="W26" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="X26" s="2">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="Y26" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Z26" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AA26" s="2">
         <v>1</v>
       </c>
       <c r="AB26" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC26" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AD26" s="2">
         <v>0</v>
@@ -4506,25 +4513,25 @@
         <v>0</v>
       </c>
       <c r="AF26" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG26" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AH26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI26" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK26" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AJ26" t="s">
-        <v>4</v>
-      </c>
-      <c r="AK26" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="AL26" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AM26" s="2">
         <v>2</v>
@@ -4532,10 +4539,10 @@
     </row>
     <row r="27" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="C27">
         <v>25</v>
@@ -4547,34 +4554,34 @@
         <v>0</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K27" s="2">
         <v>124</v>
       </c>
       <c r="L27" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P27" s="2">
         <v>0</v>
@@ -4583,7 +4590,7 @@
         <v>0</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S27" s="2">
         <v>100</v>
@@ -4592,7 +4599,7 @@
         <v>2000</v>
       </c>
       <c r="U27" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="V27" s="2">
         <v>1</v>
@@ -4610,13 +4617,13 @@
         <v>1</v>
       </c>
       <c r="AA27" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AB27" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC27" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AD27" s="2">
         <v>0</v>
@@ -4625,25 +4632,25 @@
         <v>0</v>
       </c>
       <c r="AF27" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG27" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AH27" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI27" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ27" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="AK27" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="AJ27" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="AK27" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="AL27" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AM27" s="2">
         <v>1</v>
@@ -4651,10 +4658,10 @@
     </row>
     <row r="28" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C28">
         <v>26</v>
@@ -4666,34 +4673,34 @@
         <v>25</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K28" s="2">
         <v>124</v>
       </c>
       <c r="L28" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P28" s="2">
         <v>0</v>
@@ -4702,16 +4709,16 @@
         <v>0</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T28" s="2">
         <v>2000</v>
       </c>
       <c r="U28" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="V28" s="2">
         <v>1</v>
@@ -4729,7 +4736,7 @@
         <v>1</v>
       </c>
       <c r="AA28" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AB28" s="2">
         <v>1</v>
@@ -4744,25 +4751,25 @@
         <v>0</v>
       </c>
       <c r="AF28" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG28" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AH28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI28" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ28" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="AK28" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="AJ28" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="AK28" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="AL28" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AM28" s="2">
         <v>1</v>
@@ -4770,10 +4777,10 @@
     </row>
     <row r="29" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C29">
         <v>27</v>
@@ -4785,34 +4792,34 @@
         <v>50</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K29" s="2">
         <v>124</v>
       </c>
       <c r="L29" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P29" s="2">
         <v>0</v>
@@ -4821,16 +4828,16 @@
         <v>0</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T29" s="2">
         <v>2000</v>
       </c>
       <c r="U29" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="V29" s="2">
         <v>1</v>
@@ -4848,13 +4855,13 @@
         <v>1</v>
       </c>
       <c r="AA29" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AB29" s="2">
         <v>1</v>
       </c>
       <c r="AC29" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AD29" s="2">
         <v>50</v>
@@ -4863,25 +4870,25 @@
         <v>0</v>
       </c>
       <c r="AF29" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG29" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AH29" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI29" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ29" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="AK29" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="AJ29" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="AK29" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="AL29" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AM29" s="2">
         <v>1</v>
@@ -4889,10 +4896,10 @@
     </row>
     <row r="30" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C30">
         <v>28</v>
@@ -4904,76 +4911,76 @@
         <v>0</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K30" s="2">
         <v>124</v>
       </c>
       <c r="L30" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O30" s="2">
         <v>0</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R30" s="2">
         <v>0</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T30" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U30" s="2">
         <v>0</v>
       </c>
       <c r="V30" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="W30" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="X30" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Y30" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Z30" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AA30" s="2">
         <v>0</v>
       </c>
       <c r="AB30" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC30" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AD30" s="2">
         <v>0</v>
@@ -4982,25 +4989,25 @@
         <v>0</v>
       </c>
       <c r="AF30" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG30" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AH30" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI30" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ30" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="AK30" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="AJ30" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="AK30" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="AL30" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AM30" s="2">
         <v>1</v>
@@ -5008,10 +5015,10 @@
     </row>
     <row r="31" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C31">
         <v>29</v>
@@ -5023,67 +5030,67 @@
         <v>25</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K31" s="2">
         <v>124</v>
       </c>
       <c r="L31" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O31" s="2">
         <v>0</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R31" s="2">
         <v>0</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T31" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U31" s="2">
         <v>0</v>
       </c>
       <c r="V31" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="W31" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="X31" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Y31" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Z31" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AA31" s="2">
         <v>0</v>
@@ -5092,7 +5099,7 @@
         <v>1</v>
       </c>
       <c r="AC31" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AD31" s="2">
         <v>25</v>
@@ -5101,25 +5108,25 @@
         <v>0</v>
       </c>
       <c r="AF31" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG31" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AH31" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI31" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ31" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="AK31" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="AJ31" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="AK31" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="AL31" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AM31" s="2">
         <v>1</v>
@@ -5127,10 +5134,10 @@
     </row>
     <row r="32" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C32">
         <v>30</v>
@@ -5142,67 +5149,67 @@
         <v>50</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K32" s="2">
         <v>124</v>
       </c>
       <c r="L32" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O32" s="2">
         <v>0</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R32" s="2">
         <v>0</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T32" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U32" s="2">
         <v>0</v>
       </c>
       <c r="V32" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="W32" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="X32" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Y32" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Z32" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AA32" s="2">
         <v>0</v>
@@ -5211,7 +5218,7 @@
         <v>1</v>
       </c>
       <c r="AC32" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AD32" s="2">
         <v>50</v>
@@ -5220,25 +5227,25 @@
         <v>0</v>
       </c>
       <c r="AF32" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG32" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AH32" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI32" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ32" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="AK32" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="AJ32" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="AK32" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="AL32" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AM32" s="2">
         <v>1</v>
@@ -5246,10 +5253,10 @@
     </row>
     <row r="33" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C33">
         <v>31</v>
@@ -5261,44 +5268,44 @@
         <v>0</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J33" s="2"/>
       <c r="K33" s="2">
         <v>298</v>
       </c>
       <c r="L33" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P33" s="2">
         <v>0</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R33" s="2">
         <v>0</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T33" s="2">
         <v>50</v>
@@ -5338,25 +5345,25 @@
         <v>0</v>
       </c>
       <c r="AF33" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG33" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AH33" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI33" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ33" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AK33" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AL33" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AM33" s="2">
         <v>3</v>
@@ -5364,10 +5371,10 @@
     </row>
     <row r="34" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="C34">
         <v>32</v>
@@ -5379,44 +5386,44 @@
         <v>15</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J34" s="2"/>
       <c r="K34" s="2">
         <v>298</v>
       </c>
       <c r="L34" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P34" s="2">
         <v>0</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R34" s="2">
         <v>0</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T34" s="2">
         <v>2500</v>
@@ -5447,7 +5454,7 @@
         <v>5</v>
       </c>
       <c r="AC34" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AD34" s="2">
         <v>3</v>
@@ -5456,25 +5463,25 @@
         <v>0</v>
       </c>
       <c r="AF34" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG34" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AH34" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI34" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ34" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AK34" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AL34" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM34" s="2">
         <v>3</v>
@@ -5482,10 +5489,10 @@
     </row>
     <row r="35" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C35">
         <v>33</v>
@@ -5497,44 +5504,44 @@
         <v>30</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J35" s="2"/>
       <c r="K35" s="2">
         <v>298</v>
       </c>
       <c r="L35" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P35" s="2">
         <v>0</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R35" s="2">
         <v>0</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T35" s="2">
         <v>3500</v>
@@ -5565,7 +5572,7 @@
         <v>5</v>
       </c>
       <c r="AC35" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AD35" s="2">
         <v>6</v>
@@ -5574,25 +5581,25 @@
         <v>0</v>
       </c>
       <c r="AF35" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG35" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AH35" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI35" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ35" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AK35" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AL35" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AM35" s="2">
         <v>3</v>
@@ -5600,10 +5607,10 @@
     </row>
     <row r="36" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C36">
         <v>34</v>
@@ -5617,65 +5624,65 @@
         <v>191.66666666666666</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J36" s="2"/>
       <c r="K36" s="2">
         <v>298</v>
       </c>
       <c r="L36" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O36" s="2">
         <v>0</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R36" s="2">
         <v>0</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T36" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U36" s="2">
         <v>0</v>
       </c>
       <c r="V36" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="W36" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="X36" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Y36" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Z36" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AA36" s="2">
         <v>0</v>
@@ -5684,7 +5691,7 @@
         <v>25</v>
       </c>
       <c r="AC36" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AD36" s="2">
         <f>84/12</f>
@@ -5694,25 +5701,25 @@
         <v>0</v>
       </c>
       <c r="AF36" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG36" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AH36" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI36" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ36" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AK36" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AL36" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AM36" s="2">
         <v>3</v>
@@ -5720,10 +5727,10 @@
     </row>
     <row r="37" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C37">
         <v>35</v>
@@ -5735,46 +5742,46 @@
         <v>0</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J37" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K37" s="2">
         <v>165</v>
       </c>
       <c r="L37" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O37" s="2">
         <v>0</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q37" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R37" s="2">
         <v>0</v>
       </c>
       <c r="S37" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T37" s="4">
         <v>5000</v>
@@ -5783,19 +5790,19 @@
         <v>1</v>
       </c>
       <c r="V37" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="W37" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="X37" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Y37" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Z37" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AA37" s="2">
         <v>2E-3</v>
@@ -5813,25 +5820,25 @@
         <v>0</v>
       </c>
       <c r="AF37" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG37" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AH37" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI37" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AJ37" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK37" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AL37" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AM37" s="2">
         <v>3</v>
@@ -5839,10 +5846,10 @@
     </row>
     <row r="38" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C38">
         <v>36</v>
@@ -5854,46 +5861,46 @@
         <v>9</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J38" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K38" s="2">
         <v>165</v>
       </c>
       <c r="L38" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O38" s="2">
         <v>0</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q38" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R38" s="2">
         <v>0</v>
       </c>
       <c r="S38" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T38" s="4">
         <v>20000</v>
@@ -5902,19 +5909,19 @@
         <v>1</v>
       </c>
       <c r="V38" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="W38" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="X38" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Y38" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Z38" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AA38" s="2">
         <v>2E-3</v>
@@ -5923,7 +5930,7 @@
         <v>1</v>
       </c>
       <c r="AC38" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AD38" s="2">
         <v>9</v>
@@ -5932,25 +5939,25 @@
         <v>5000</v>
       </c>
       <c r="AF38" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG38" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AH38" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI38" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AJ38" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK38" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AL38" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AM38" s="2">
         <v>3</v>
@@ -5958,10 +5965,10 @@
     </row>
     <row r="39" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="C39">
         <v>37</v>
@@ -5973,46 +5980,46 @@
         <v>19</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J39" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K39" s="2">
         <v>165</v>
       </c>
       <c r="L39" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O39" s="2">
         <v>0</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q39" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R39" s="2">
         <v>0</v>
       </c>
       <c r="S39" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T39" s="4">
         <v>40000</v>
@@ -6021,19 +6028,19 @@
         <v>1</v>
       </c>
       <c r="V39" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="W39" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="X39" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Y39" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Z39" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AA39" s="2">
         <v>2E-3</v>
@@ -6042,7 +6049,7 @@
         <v>1</v>
       </c>
       <c r="AC39" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AD39" s="2">
         <v>19</v>
@@ -6051,25 +6058,25 @@
         <v>12500</v>
       </c>
       <c r="AF39" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG39" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AH39" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI39" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AJ39" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK39" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AL39" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AM39" s="2">
         <v>3</v>
@@ -6077,10 +6084,10 @@
     </row>
     <row r="40" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C40">
         <v>38</v>
@@ -6094,46 +6101,46 @@
         <v>1050</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J40" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K40" s="2">
         <v>165</v>
       </c>
       <c r="L40" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O40" s="2">
         <v>0</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q40" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R40" s="2">
         <v>0</v>
       </c>
       <c r="S40" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T40" s="4">
         <v>100000</v>
@@ -6142,19 +6149,19 @@
         <v>1</v>
       </c>
       <c r="V40" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="W40" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="X40" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Y40" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Z40" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AA40" s="2">
         <v>2E-3</v>
@@ -6163,7 +6170,7 @@
         <v>30</v>
       </c>
       <c r="AC40" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AD40" s="2">
         <v>35</v>
@@ -6172,25 +6179,25 @@
         <v>25000</v>
       </c>
       <c r="AF40" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG40" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AH40" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI40" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AJ40" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK40" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AL40" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AM40" s="2">
         <v>3</v>
@@ -6198,10 +6205,10 @@
     </row>
     <row r="41" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C41">
         <v>39</v>
@@ -6213,103 +6220,103 @@
         <v>0</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K41" s="2">
         <v>90</v>
       </c>
       <c r="L41" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N41" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="O41" s="2">
+        <v>0</v>
+      </c>
+      <c r="P41" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q41" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="R41" s="2">
+        <v>0</v>
+      </c>
+      <c r="S41" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="T41" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="U41" s="2">
+        <v>0</v>
+      </c>
+      <c r="V41" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="W41" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="X41" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y41" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z41" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC41" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE41" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF41" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG41" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="AH41" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI41" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="O41" s="2">
-        <v>0</v>
-      </c>
-      <c r="P41" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q41" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="R41" s="2">
-        <v>0</v>
-      </c>
-      <c r="S41" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="T41" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="U41" s="2">
-        <v>0</v>
-      </c>
-      <c r="V41" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="W41" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="X41" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y41" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z41" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA41" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB41" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC41" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD41" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE41" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF41" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AG41" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="AH41" t="s">
-        <v>4</v>
-      </c>
-      <c r="AI41" s="2" t="s">
+      <c r="AJ41" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK41" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AJ41" t="s">
-        <v>4</v>
-      </c>
-      <c r="AK41" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="AL41" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AM41" s="2">
         <v>2</v>
@@ -6317,10 +6324,10 @@
     </row>
     <row r="42" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C42">
         <v>40</v>
@@ -6332,76 +6339,76 @@
         <v>0</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K42" s="2">
         <v>10</v>
       </c>
       <c r="L42" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O42" s="2">
         <v>0</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q42" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R42" s="2">
         <v>0</v>
       </c>
       <c r="S42" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T42" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U42" s="2">
         <v>0</v>
       </c>
       <c r="V42" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="W42" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="X42" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Y42" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Z42" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AA42" s="2">
         <v>0</v>
       </c>
       <c r="AB42" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC42" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AD42" s="2">
         <v>0</v>
@@ -6410,25 +6417,25 @@
         <v>0</v>
       </c>
       <c r="AF42" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AG42" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH42" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI42" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ42" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK42" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AJ42" t="s">
-        <v>4</v>
-      </c>
-      <c r="AK42" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="AL42" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AM42" s="2">
         <v>3</v>
@@ -6436,10 +6443,10 @@
     </row>
     <row r="43" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="C43">
         <v>41</v>
@@ -6451,31 +6458,31 @@
         <v>29</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K43" s="2">
         <v>0</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O43" s="2">
         <v>1</v>
@@ -6490,10 +6497,10 @@
         <v>10</v>
       </c>
       <c r="S43" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T43" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U43" s="2">
         <v>0</v>
@@ -6517,10 +6524,10 @@
         <v>0</v>
       </c>
       <c r="AB43" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC43" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AD43" s="2">
         <v>0</v>
@@ -6529,25 +6536,25 @@
         <v>0</v>
       </c>
       <c r="AF43" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG43" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AH43" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI43" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AJ43" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK43" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="AJ43" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AK43" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="AL43" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AM43" s="2">
         <v>3</v>
@@ -6555,10 +6562,10 @@
     </row>
     <row r="44" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C44">
         <v>42</v>
@@ -6572,31 +6579,31 @@
         <v>49.166666666666664</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K44" s="2">
         <v>0</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O44" s="2">
         <v>1</v>
@@ -6611,10 +6618,10 @@
         <v>10</v>
       </c>
       <c r="S44" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T44" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U44" s="2">
         <v>0</v>
@@ -6638,10 +6645,10 @@
         <v>0</v>
       </c>
       <c r="AB44" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC44" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AD44" s="2">
         <v>0</v>
@@ -6650,25 +6657,25 @@
         <v>0</v>
       </c>
       <c r="AF44" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG44" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AH44" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI44" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AJ44" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK44" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="AJ44" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AK44" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="AL44" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AM44" s="2">
         <v>3</v>
@@ -6676,10 +6683,10 @@
     </row>
     <row r="45" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C45">
         <v>43</v>
@@ -6693,31 +6700,31 @@
         <v>82.5</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K45" s="2">
         <v>0</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O45" s="2">
         <v>2</v>
@@ -6732,10 +6739,10 @@
         <v>10</v>
       </c>
       <c r="S45" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T45" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U45" s="2">
         <v>0</v>
@@ -6759,10 +6766,10 @@
         <v>0</v>
       </c>
       <c r="AB45" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC45" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AD45" s="2">
         <v>0</v>
@@ -6771,25 +6778,25 @@
         <v>0</v>
       </c>
       <c r="AF45" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG45" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AH45" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI45" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AJ45" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK45" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="AJ45" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AK45" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="AL45" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AM45" s="2">
         <v>3</v>
@@ -6797,10 +6804,10 @@
     </row>
     <row r="46" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C46">
         <v>44</v>
@@ -6812,76 +6819,76 @@
         <v>0</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K46" s="2">
         <v>0</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P46" s="2">
         <v>0</v>
       </c>
       <c r="Q46" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R46" s="2">
         <v>0</v>
       </c>
       <c r="S46" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T46" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U46" s="2">
         <v>0</v>
       </c>
       <c r="V46" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="W46" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="X46" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Y46" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Z46" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AA46" s="2">
         <v>0</v>
       </c>
       <c r="AB46" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC46" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AD46" s="2">
         <v>0</v>
@@ -6890,25 +6897,25 @@
         <v>0</v>
       </c>
       <c r="AF46" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG46" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AH46" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI46" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AJ46" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK46" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="AJ46" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AK46" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="AL46" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AM46" s="2">
         <v>3</v>
@@ -6916,10 +6923,10 @@
     </row>
     <row r="47" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C47">
         <v>45</v>
@@ -6931,76 +6938,76 @@
         <v>0</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K47" s="2">
         <v>0</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P47" s="2">
         <v>0</v>
       </c>
       <c r="Q47" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R47" s="2">
         <v>0</v>
       </c>
       <c r="S47" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T47" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U47" s="2">
         <v>0</v>
       </c>
       <c r="V47" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="W47" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="X47" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Y47" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Z47" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AA47" s="2">
         <v>0</v>
       </c>
       <c r="AB47" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC47" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AD47" s="2">
         <v>0</v>
@@ -7009,25 +7016,25 @@
         <v>0</v>
       </c>
       <c r="AF47" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG47" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AH47" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI47" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AJ47" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK47" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="AJ47" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AK47" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="AL47" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AM47" s="2">
         <v>3</v>
@@ -7035,10 +7042,10 @@
     </row>
     <row r="48" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C48">
         <v>46</v>
@@ -7050,76 +7057,76 @@
         <v>0</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J48" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K48" s="2">
         <v>5</v>
       </c>
       <c r="L48" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O48" s="2">
         <v>0</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q48" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R48" s="2">
         <v>0</v>
       </c>
       <c r="S48" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T48" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U48" s="2">
         <v>0</v>
       </c>
       <c r="V48" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="W48" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="X48" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Y48" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Z48" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AA48" s="2">
         <v>0</v>
       </c>
       <c r="AB48" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC48" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AD48" s="2">
         <v>0</v>
@@ -7128,25 +7135,25 @@
         <v>0</v>
       </c>
       <c r="AF48" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG48" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AH48" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI48" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ48" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK48" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="AJ48" t="s">
-        <v>4</v>
-      </c>
-      <c r="AK48" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="AL48" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AM48" s="2">
         <v>3</v>
@@ -7154,10 +7161,10 @@
     </row>
     <row r="49" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C49">
         <v>47</v>
@@ -7169,76 +7176,76 @@
         <v>0</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J49" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K49" s="2">
         <v>149</v>
       </c>
       <c r="L49" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O49" s="2">
         <v>0</v>
       </c>
       <c r="P49" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q49" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R49" s="2">
         <v>0</v>
       </c>
       <c r="S49" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T49" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U49" s="2">
         <v>0</v>
       </c>
       <c r="V49" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="W49" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="X49" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Y49" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Z49" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AA49" s="2">
         <v>0</v>
       </c>
       <c r="AB49" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC49" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AD49" s="2">
         <v>0</v>
@@ -7247,25 +7254,25 @@
         <v>0</v>
       </c>
       <c r="AF49" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG49" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AH49" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI49" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ49" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK49" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AL49" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AM49" s="2">
         <v>3</v>
@@ -7273,10 +7280,10 @@
     </row>
     <row r="50" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C50">
         <v>48</v>
@@ -7288,76 +7295,76 @@
         <v>0</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K50" s="2">
         <v>44</v>
       </c>
       <c r="L50" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O50" s="2">
         <v>0</v>
       </c>
       <c r="P50" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q50" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R50" s="2">
         <v>0</v>
       </c>
       <c r="S50" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T50" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U50" s="2">
         <v>0</v>
       </c>
       <c r="V50" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="W50" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="X50" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Y50" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Z50" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AA50" s="2">
         <v>0</v>
       </c>
       <c r="AB50" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC50" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AD50" s="2">
         <v>0</v>
@@ -7366,23 +7373,23 @@
         <v>0</v>
       </c>
       <c r="AF50" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG50" s="2"/>
       <c r="AH50" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI50" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ50" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK50" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="AJ50" t="s">
-        <v>4</v>
-      </c>
-      <c r="AK50" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="AL50" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AM50" s="2">
         <v>2</v>
@@ -7390,10 +7397,10 @@
     </row>
     <row r="51" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C51">
         <v>49</v>
@@ -7407,76 +7414,76 @@
         <v>300</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K51" s="2">
         <v>44</v>
       </c>
       <c r="L51" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O51" s="2">
         <v>0</v>
       </c>
       <c r="P51" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q51" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R51" s="2">
         <v>0</v>
       </c>
       <c r="S51" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T51" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U51" s="2">
         <v>0</v>
       </c>
       <c r="V51" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="W51" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="X51" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Y51" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Z51" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AA51" s="2">
         <v>0</v>
       </c>
       <c r="AB51" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC51" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AD51" s="2">
         <v>0</v>
@@ -7485,23 +7492,23 @@
         <v>0</v>
       </c>
       <c r="AF51" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG51" s="2"/>
       <c r="AH51" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI51" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ51" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK51" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="AJ51" t="s">
-        <v>4</v>
-      </c>
-      <c r="AK51" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="AL51" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM51" s="2">
         <v>2</v>
@@ -7509,10 +7516,10 @@
     </row>
     <row r="52" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="C52">
         <v>50</v>
@@ -7524,47 +7531,47 @@
         <v>10</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K52" s="2">
         <v>0</v>
       </c>
       <c r="L52" s="2"/>
       <c r="M52" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q52" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R52" s="2">
         <v>0</v>
       </c>
       <c r="S52" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T52" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U52" s="2">
         <v>0</v>
@@ -7600,25 +7607,25 @@
         <v>0</v>
       </c>
       <c r="AF52" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG52" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AH52" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI52" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ52" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK52" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AL52" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AM52" s="2">
         <v>2</v>
@@ -7626,10 +7633,10 @@
     </row>
     <row r="53" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C53">
         <v>51</v>
@@ -7641,44 +7648,44 @@
         <v>10</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K53" s="2">
         <v>0</v>
       </c>
       <c r="L53" s="2"/>
       <c r="M53" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P53" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q53" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R53" s="2">
         <v>0</v>
       </c>
       <c r="S53" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T53" s="2">
         <v>0</v>
@@ -7690,7 +7697,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="W53" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="X53" s="2">
         <v>0.01</v>
@@ -7709,7 +7716,7 @@
         <v>1</v>
       </c>
       <c r="AC53" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AD53" s="2">
         <v>10</v>
@@ -7718,25 +7725,25 @@
         <v>0</v>
       </c>
       <c r="AF53" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG53" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AH53" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI53" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ53" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK53" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AL53" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AM53" s="2">
         <v>2</v>
@@ -7744,10 +7751,10 @@
     </row>
     <row r="54" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C54">
         <v>52</v>
@@ -7759,74 +7766,74 @@
         <v>0</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J54" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K54" s="2">
         <v>0</v>
       </c>
       <c r="L54" s="2"/>
       <c r="M54" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O54" s="2">
         <v>0</v>
       </c>
       <c r="P54" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q54" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R54" s="2">
         <v>0</v>
       </c>
       <c r="S54" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T54" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U54" s="2">
         <v>0</v>
       </c>
       <c r="V54" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="W54" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="X54" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Y54" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Z54" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AA54" s="2">
         <v>0</v>
       </c>
       <c r="AB54" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC54" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AD54" s="2">
         <v>0</v>
@@ -7835,25 +7842,25 @@
         <v>0</v>
       </c>
       <c r="AF54" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG54" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AH54" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI54" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ54" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK54" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="AJ54" t="s">
-        <v>4</v>
-      </c>
-      <c r="AK54" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="AL54" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AM54" s="2">
         <v>2</v>
@@ -7861,10 +7868,10 @@
     </row>
     <row r="55" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C55">
         <v>53</v>
@@ -7876,52 +7883,52 @@
         <v>0</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J55" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K55" s="2">
         <v>7</v>
       </c>
       <c r="L55" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O55" s="2">
         <v>1</v>
       </c>
       <c r="P55" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q55" s="2">
         <v>0</v>
       </c>
       <c r="R55" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S55" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T55" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U55" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="V55" s="2">
         <v>0</v>
@@ -7954,25 +7961,25 @@
         <v>0</v>
       </c>
       <c r="AF55" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG55" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AH55" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI55" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ55" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK55" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AL55" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM55" s="2">
         <v>1</v>
@@ -7980,10 +7987,10 @@
     </row>
     <row r="56" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C56">
         <v>54</v>
@@ -7995,52 +8002,52 @@
         <v>39</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J56" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K56" s="2">
         <v>7</v>
       </c>
       <c r="L56" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O56" s="2">
         <v>12</v>
       </c>
       <c r="P56" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q56" s="2">
         <v>0</v>
       </c>
       <c r="R56" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S56" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T56" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U56" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="V56" s="2">
         <v>0</v>
@@ -8064,7 +8071,7 @@
         <v>1</v>
       </c>
       <c r="AC56" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AD56" s="2">
         <v>39</v>
@@ -8073,25 +8080,25 @@
         <v>0</v>
       </c>
       <c r="AF56" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG56" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AH56" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI56" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ56" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK56" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AL56" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AM56" s="2">
         <v>1</v>
@@ -8099,10 +8106,10 @@
     </row>
     <row r="57" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="C57">
         <v>55</v>
@@ -8114,16 +8121,16 @@
         <v>29</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J57" s="2"/>
       <c r="K57" s="2">
@@ -8131,46 +8138,46 @@
       </c>
       <c r="L57" s="2"/>
       <c r="M57" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O57" s="2">
         <v>0</v>
       </c>
       <c r="P57" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q57" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R57" s="2">
         <v>0</v>
       </c>
       <c r="S57" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T57" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U57" s="2">
         <v>0</v>
       </c>
       <c r="V57" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="W57" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="X57" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Y57" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Z57" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AA57" s="2">
         <v>0</v>
@@ -8179,7 +8186,7 @@
         <v>1</v>
       </c>
       <c r="AC57" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AD57" s="2">
         <v>29</v>
@@ -8188,25 +8195,25 @@
         <v>0</v>
       </c>
       <c r="AF57" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG57" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AH57" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI57" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ57" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK57" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AL57" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AM57" s="2">
         <v>1</v>
@@ -8214,10 +8221,10 @@
     </row>
     <row r="58" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C58">
         <v>56</v>
@@ -8229,16 +8236,16 @@
         <v>0</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J58" s="2"/>
       <c r="K58" s="2">
@@ -8246,55 +8253,55 @@
       </c>
       <c r="L58" s="2"/>
       <c r="M58" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O58" s="2">
         <v>0</v>
       </c>
       <c r="P58" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q58" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R58" s="2">
         <v>0</v>
       </c>
       <c r="S58" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T58" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U58" s="2">
         <v>0</v>
       </c>
       <c r="V58" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="W58" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="X58" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Y58" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Z58" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AA58" s="2">
         <v>0</v>
       </c>
       <c r="AB58" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC58" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AD58" s="2">
         <v>0</v>
@@ -8303,25 +8310,25 @@
         <v>0</v>
       </c>
       <c r="AF58" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG58" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AH58" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI58" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ58" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK58" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AL58" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AM58" s="2">
         <v>1</v>
@@ -8329,10 +8336,10 @@
     </row>
     <row r="59" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C59">
         <v>57</v>
@@ -8344,50 +8351,50 @@
         <v>0</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J59" s="2"/>
       <c r="K59" s="2">
         <v>157</v>
       </c>
       <c r="L59" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O59" s="2">
         <v>1</v>
       </c>
       <c r="P59" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q59" s="2">
         <v>0</v>
       </c>
       <c r="R59" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S59" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T59" s="2">
         <v>300</v>
       </c>
       <c r="U59" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="V59" s="2">
         <v>1</v>
@@ -8402,10 +8409,10 @@
         <v>6</v>
       </c>
       <c r="Z59" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AA59" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AB59" s="2">
         <v>1</v>
@@ -8420,25 +8427,25 @@
         <v>0</v>
       </c>
       <c r="AF59" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG59" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AH59" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI59" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AJ59" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK59" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AL59" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AM59" s="2">
         <v>3</v>
@@ -8446,10 +8453,10 @@
     </row>
     <row r="60" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C60">
         <v>58</v>
@@ -8461,29 +8468,29 @@
         <v>29</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J60" s="2"/>
       <c r="K60" s="2">
         <v>157</v>
       </c>
       <c r="L60" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O60" s="2">
         <v>1</v>
@@ -8495,16 +8502,16 @@
         <v>0</v>
       </c>
       <c r="R60" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S60" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T60" s="2">
         <v>3000</v>
       </c>
       <c r="U60" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="V60" s="2">
         <v>1</v>
@@ -8519,7 +8526,7 @@
         <v>6</v>
       </c>
       <c r="Z60" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AA60" s="2">
         <v>1.5E-3</v>
@@ -8528,7 +8535,7 @@
         <v>2</v>
       </c>
       <c r="AC60" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AD60" s="2">
         <v>9</v>
@@ -8537,25 +8544,25 @@
         <v>0</v>
       </c>
       <c r="AF60" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG60" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AH60" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI60" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AJ60" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK60" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AL60" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AM60" s="2">
         <v>3</v>
@@ -8563,10 +8570,10 @@
     </row>
     <row r="61" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="C61">
         <v>59</v>
@@ -8578,29 +8585,29 @@
         <v>99</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J61" s="2"/>
       <c r="K61" s="2">
         <v>157</v>
       </c>
       <c r="L61" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O61" s="2">
         <v>2</v>
@@ -8612,16 +8619,16 @@
         <v>0</v>
       </c>
       <c r="R61" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S61" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T61" s="2">
         <v>6000</v>
       </c>
       <c r="U61" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="V61" s="2">
         <v>1</v>
@@ -8636,7 +8643,7 @@
         <v>6</v>
       </c>
       <c r="Z61" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AA61" s="2">
         <v>1.5E-3</v>
@@ -8645,7 +8652,7 @@
         <v>5</v>
       </c>
       <c r="AC61" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AD61" s="2">
         <v>29</v>
@@ -8654,25 +8661,25 @@
         <v>0</v>
       </c>
       <c r="AF61" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG61" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AH61" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI61" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AJ61" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK61" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AL61" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AM61" s="2">
         <v>3</v>
@@ -8680,10 +8687,10 @@
     </row>
     <row r="62" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C62">
         <v>60</v>
@@ -8697,65 +8704,65 @@
         <v>175</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J62" s="2"/>
       <c r="K62" s="2">
         <v>157</v>
       </c>
       <c r="L62" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O62" s="2">
         <v>0</v>
       </c>
       <c r="P62" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q62" s="2">
         <v>4</v>
       </c>
       <c r="R62" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S62" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T62" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U62" s="2">
         <v>0</v>
       </c>
       <c r="V62" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="W62" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="X62" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Y62" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Z62" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AA62" s="2">
         <v>0</v>
@@ -8764,7 +8771,7 @@
         <v>5</v>
       </c>
       <c r="AC62" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AD62" s="2">
         <v>35</v>
@@ -8773,25 +8780,25 @@
         <v>0</v>
       </c>
       <c r="AF62" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG62" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AH62" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI62" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AJ62" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK62" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AL62" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AM62" s="2">
         <v>3</v>
@@ -8799,10 +8806,10 @@
     </row>
     <row r="63" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C63">
         <v>61</v>
@@ -8814,16 +8821,16 @@
         <v>0</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J63" s="2"/>
       <c r="K63" s="2">
@@ -8831,13 +8838,13 @@
       </c>
       <c r="L63" s="2"/>
       <c r="M63" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O63" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P63" s="2">
         <v>0</v>
@@ -8846,16 +8853,16 @@
         <v>0</v>
       </c>
       <c r="R63" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S63" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T63" s="2">
         <v>0</v>
       </c>
       <c r="U63" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="V63" s="2">
         <v>1</v>
@@ -8876,10 +8883,10 @@
         <v>1</v>
       </c>
       <c r="AB63" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC63" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AD63" s="2">
         <v>0</v>
@@ -8888,25 +8895,25 @@
         <v>0</v>
       </c>
       <c r="AF63" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG63" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AH63" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI63" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="AJ63" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK63" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AJ63" t="s">
-        <v>4</v>
-      </c>
-      <c r="AK63" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="AL63" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AM63" s="2">
         <v>3</v>

--- a/src/lib/excels/CI_Comps.xlsx
+++ b/src/lib/excels/CI_Comps.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="37" documentId="13_ncr:1_{D3960B16-8E25-1A4A-BB2A-584F7A9CFA40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39639059-0FF9-CC4B-A29D-4CB9EE66B8D1}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="13_ncr:1_{D3960B16-8E25-1A4A-BB2A-584F7A9CFA40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F9BC3F60-7D3F-8648-B0D1-D6C4FCE7047E}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{AB0D5E22-6F5B-EC43-9578-14FEE2B3982A}"/>
   </bookViews>
@@ -771,9 +771,6 @@
     <t>Linux 2CPU: 0.008;Docker 2CPU: 0.008; macOS 3CPU: 0.08; Windows 2CPU: 0.016; https://docs.github.com/en/actions/hosting-your-own-runners/about-self-hosted-runners#requirements-for-self-hosted-runner-machines</t>
   </si>
   <si>
-    <t>Final Price</t>
-  </si>
-  <si>
     <t>Not controllable</t>
   </si>
   <si>
@@ -793,6 +790,9 @@
   </si>
   <si>
     <t>Extras Included</t>
+  </si>
+  <si>
+    <t>Final Price $</t>
   </si>
 </sst>
 </file>
@@ -1065,10 +1065,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1420,7 +1416,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="topRight" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1492,7 +1488,7 @@
         <v>146</v>
       </c>
       <c r="F1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G1" t="s">
         <v>0</v>
@@ -1564,7 +1560,7 @@
         <v>125</v>
       </c>
       <c r="AD1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AE1" t="s">
         <v>132</v>
@@ -1608,10 +1604,10 @@
         <v>147</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="F2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G2" t="s">
         <v>0</v>
@@ -4153,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="AF23" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AG23" s="2" t="s">
         <v>48</v>
@@ -4274,7 +4270,7 @@
         <v>0</v>
       </c>
       <c r="AF24" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AG24" s="2" t="s">
         <v>48</v>
@@ -4393,7 +4389,7 @@
         <v>8000</v>
       </c>
       <c r="AF25" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AG25" s="2" t="s">
         <v>48</v>
@@ -4443,7 +4439,7 @@
         <v>2</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>156</v>
@@ -6417,7 +6413,7 @@
         <v>0</v>
       </c>
       <c r="AF42" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AG42" s="2" t="s">
         <v>48</v>
@@ -8370,7 +8366,7 @@
         <v>185</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N59" s="2" t="s">
         <v>19</v>
@@ -8409,7 +8405,7 @@
         <v>6</v>
       </c>
       <c r="Z59" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AA59" s="2" t="s">
         <v>19</v>
@@ -8487,7 +8483,7 @@
         <v>185</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N60" s="2" t="s">
         <v>19</v>
@@ -8526,7 +8522,7 @@
         <v>6</v>
       </c>
       <c r="Z60" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AA60" s="2">
         <v>1.5E-3</v>
@@ -8604,7 +8600,7 @@
         <v>185</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N61" s="2" t="s">
         <v>19</v>
@@ -8643,7 +8639,7 @@
         <v>6</v>
       </c>
       <c r="Z61" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AA61" s="2">
         <v>1.5E-3</v>
@@ -8726,7 +8722,7 @@
         <v>19</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O62" s="2">
         <v>0</v>

--- a/src/lib/excels/CI_Comps.xlsx
+++ b/src/lib/excels/CI_Comps.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="38" documentId="13_ncr:1_{D3960B16-8E25-1A4A-BB2A-584F7A9CFA40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F9BC3F60-7D3F-8648-B0D1-D6C4FCE7047E}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="13_ncr:1_{D3960B16-8E25-1A4A-BB2A-584F7A9CFA40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3001CEF3-6DCE-F34A-8BD7-938E2F304C41}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{AB0D5E22-6F5B-EC43-9578-14FEE2B3982A}"/>
   </bookViews>
@@ -792,7 +792,7 @@
     <t>Extras Included</t>
   </si>
   <si>
-    <t>Final Price $</t>
+    <t>Monthly Price $</t>
   </si>
 </sst>
 </file>
@@ -1065,6 +1065,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1415,8 +1419,8 @@
   <dimension ref="A1:AM63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E3" sqref="E3"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
